--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3790758B-B7E8-496E-8FE5-C1E3A095A75E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C28429-97CF-430A-B239-424900291E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8310" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="329">
   <si>
     <t>Index</t>
   </si>
   <si>
+    <t>dataschema_variable</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
@@ -57,12 +60,18 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Participant identification number</t>
   </si>
   <si>
     <t>integer</t>
   </si>
   <si>
+    <t>LISA_P2</t>
+  </si>
+  <si>
     <t>id_creation</t>
   </si>
   <si>
@@ -78,9 +87,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>LISA_P2</t>
-  </si>
-  <si>
     <t xml:space="preserve">GESCHL </t>
   </si>
   <si>
@@ -102,66 +108,104 @@
     <t>Education</t>
   </si>
   <si>
+    <t>MUTBILD_0;
+VATBILD_0;</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>"None" (0): Both parents have 1 (no certificate).
+"Primary School Completed" (1): Either parent has 2.
+"Technical/Professional School" (2): Either parent has 3.
+"Secondary School" (3): Either parent has 4.
+"Longer Education" (4): Either parent has 5 or 6.
+"Not Specified" (5): Either parent has 7 (other degree).</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
+    <t>EMPLOY</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>mutberuztak3_15;
+vatberuztak3_15</t>
+  </si>
+  <si>
+    <t>If either parent is "fully employed (100%)," assign 1L.
+If either parent works "more than half day," "half day," or "less than half day," 
+If both parents are "not at all employed," assign 5L.
+If one parent's status is NA, use the other parent's status to determine the category.
+If both are NA, assign 7L ("other").</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>proximate</t>
+  </si>
+  <si>
+    <t>IMMIGRATION</t>
+  </si>
+  <si>
+    <t>Immigration background</t>
+  </si>
+  <si>
+    <t>impossible</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>TOT_PA_QX</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data</t>
+  </si>
+  <si>
+    <t>aktivleiisommn_15;
+aktivleiwintn_15;
+aktivmitsommn_15;
+aktivmitwintn_15;
+aktivschsommn_15;
+aktivschwintn_15</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>(
+  1.5 * ((aktivleiisommn_15 + aktivleiwintn_15) / 2) +
+  3 * ((aktivmitsommn_15 + aktivmitwintn_15) / 2) +
+  6 * ((aktivschsommn_15 + aktivschwintn_15) / 2)
+) / 7</t>
+  </si>
+  <si>
+    <t>(1.5(average mean of light activities)+ 3(average mean of moderate actvities)+6(average mean of heavy activities)/7</t>
+  </si>
+  <si>
+    <t>TOT_PA_AC</t>
+  </si>
+  <si>
+    <t>Physical activity from accelerometry data</t>
+  </si>
+  <si>
+    <t>SMOKE_ST</t>
+  </si>
+  <si>
+    <t>Smoking status</t>
+  </si>
+  <si>
+    <t>K_FB_rauchkind_15</t>
+  </si>
+  <si>
     <t>recode</t>
   </si>
   <si>
-    <t>recode(1 = 0; 2=1; 3=3; 4=2; 5= 3; 6= 4; 7= 5;)</t>
-  </si>
-  <si>
-    <t>compatible</t>
-  </si>
-  <si>
-    <t>EMPLOY</t>
-  </si>
-  <si>
-    <t>Employment</t>
-  </si>
-  <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t>proximate</t>
-  </si>
-  <si>
-    <t>IMMIGRATION</t>
-  </si>
-  <si>
-    <t>Immigration background</t>
-  </si>
-  <si>
-    <t>impossible</t>
-  </si>
-  <si>
-    <t>unavailable</t>
-  </si>
-  <si>
-    <t>TOT_PA_QX</t>
-  </si>
-  <si>
-    <t>Physical activity from questionnaire data</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>TOT_PA_AC</t>
-  </si>
-  <si>
-    <t>Physical activity from accelerometry data</t>
-  </si>
-  <si>
-    <t>SMOKE_ST</t>
-  </si>
-  <si>
-    <t>Smoking status</t>
-  </si>
-  <si>
-    <t>K_FB_rauchkind_15</t>
-  </si>
-  <si>
-    <t>recode(1 = 1; 2=3; 3=3; 4=3;)</t>
-  </si>
-  <si>
     <t>TOBACCO_PY</t>
   </si>
   <si>
@@ -192,12 +236,21 @@
     <t>recode(1=1; 2= 0;)</t>
   </si>
   <si>
+    <t>as needed is considered not regular use in the categories</t>
+  </si>
+  <si>
     <t>MENOPAUSE</t>
   </si>
   <si>
     <t>Menopause status</t>
   </si>
   <si>
+    <t>Children cohort, so considering creating variable for all 0=premenopausal and 0=no hormone repl.</t>
+  </si>
+  <si>
+    <t>incompatible</t>
+  </si>
+  <si>
     <t>HRT</t>
   </si>
   <si>
@@ -210,10 +263,7 @@
     <t xml:space="preserve">Use of contraceptive pills or injections </t>
   </si>
   <si>
-    <t>KE_pille_15</t>
-  </si>
-  <si>
-    <t>recode (1=1; 2= 2; ELSE=NA)</t>
+    <t>Question asked for this variable is different for required variable for harmonisation</t>
   </si>
   <si>
     <t>LIVE_BIRTHS</t>
@@ -222,6 +272,9 @@
     <t>Number of live births given</t>
   </si>
   <si>
+    <t>children study</t>
+  </si>
+  <si>
     <t>AGE_FIRST_BIRTH</t>
   </si>
   <si>
@@ -264,6 +317,9 @@
     <t>HDL cholesterol measured from blood samples</t>
   </si>
   <si>
+    <t xml:space="preserve">HDL_15 </t>
+  </si>
+  <si>
     <t>PREV_DIAB</t>
   </si>
   <si>
@@ -288,7 +344,7 @@
     <t xml:space="preserve">History of cancer </t>
   </si>
   <si>
-    <t>recode (1=1; 2= 0; ELSE=NA)</t>
+    <t>maligjead_15</t>
   </si>
   <si>
     <t>FAM1_CHD_STROKE</t>
@@ -303,6 +359,16 @@
     <t>First degree family history of T2D</t>
   </si>
   <si>
+    <t>diabmut_15;
+diabvat_15</t>
+  </si>
+  <si>
+    <t>If either parent has diabetes, the family history is marked as 1.
+If both parents do not have diabetes, the family history is marked as 0.
+If one parent's status is missing or unknown (NA or 3), use the other parent’s status. If the known parent has diabetes, the family history is marked as 1, and if the known parent does not have diabetes, the family history is marked as NA.
+If both parents' statuses are missing -&gt; "" or unknown -&gt; 888, the family history is marked as NA (insufficient data).</t>
+  </si>
+  <si>
     <t>FAM1_CANCER</t>
   </si>
   <si>
@@ -477,24 +543,21 @@
     <t>Cancer during follow-up</t>
   </si>
   <si>
-    <t>maligjead_15</t>
-  </si>
-  <si>
     <t>TYPE_CANCER</t>
   </si>
   <si>
     <t>Type of cancer</t>
   </si>
   <si>
+    <t>AGE_CANCER</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cancer</t>
+  </si>
+  <si>
     <t>maligjeadalt_15</t>
   </si>
   <si>
-    <t>AGE_CANCER</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of cancer</t>
-  </si>
-  <si>
     <t>VITAL_ST</t>
   </si>
   <si>
@@ -540,6 +603,9 @@
     <t>Body Mass index at follow-up</t>
   </si>
   <si>
+    <t>KIbmi_20</t>
+  </si>
+  <si>
     <t>BMI_SDS</t>
   </si>
   <si>
@@ -555,7 +621,7 @@
     <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
   </si>
   <si>
-    <t>?</t>
+    <t>adult data</t>
   </si>
   <si>
     <t>WAIST_FUP</t>
@@ -582,6 +648,12 @@
     <t>Hip circumference at follow-up</t>
   </si>
   <si>
+    <t>FMI_FUP</t>
+  </si>
+  <si>
+    <t>Fat mass index at follow-up</t>
+  </si>
+  <si>
     <t>FMI</t>
   </si>
   <si>
@@ -591,10 +663,22 @@
     <t xml:space="preserve">UB_fmi_15 </t>
   </si>
   <si>
+    <t>BODY_FAT_FUP</t>
+  </si>
+  <si>
+    <t>Body fat percentage at at follow-up</t>
+  </si>
+  <si>
     <t>BODY_FAT</t>
   </si>
   <si>
-    <t>Body fat at at baseline</t>
+    <t>Body fat percentage at at baseline</t>
+  </si>
+  <si>
+    <t>UB_fbm_15</t>
+  </si>
+  <si>
+    <t>calculated from lean mass measured by BIA (weight in kg minus lean body mass (ub_lbm_15)</t>
   </si>
   <si>
     <t>AGE_ANTH_FUP</t>
@@ -624,6 +708,9 @@
     <t>FFQZK_15</t>
   </si>
   <si>
+    <t>FFQZK_15/1000</t>
+  </si>
+  <si>
     <t>PROT</t>
   </si>
   <si>
@@ -633,6 +720,9 @@
     <t>FFQZE_15</t>
   </si>
   <si>
+    <t>FFQZE_15/1000</t>
+  </si>
+  <si>
     <t>FAT</t>
   </si>
   <si>
@@ -642,6 +732,9 @@
     <t>FFQZF_15</t>
   </si>
   <si>
+    <t>FFQZF_15/1000</t>
+  </si>
+  <si>
     <t>ALC</t>
   </si>
   <si>
@@ -651,6 +744,9 @@
     <t xml:space="preserve">FFQZA_15 </t>
   </si>
   <si>
+    <t>FFQZA_15/1000</t>
+  </si>
+  <si>
     <t>FIBER</t>
   </si>
   <si>
@@ -660,6 +756,9 @@
     <t>FFQZB_15</t>
   </si>
   <si>
+    <t>FFQZB_15/1000</t>
+  </si>
+  <si>
     <t>SFA</t>
   </si>
   <si>
@@ -669,6 +768,9 @@
     <t>FFQFS_15</t>
   </si>
   <si>
+    <t>FFQFS_15/1000</t>
+  </si>
+  <si>
     <t>MUFA</t>
   </si>
   <si>
@@ -678,6 +780,9 @@
     <t>FFQFU_15</t>
   </si>
   <si>
+    <t>FFQFU_15/1000</t>
+  </si>
+  <si>
     <t>PUFA</t>
   </si>
   <si>
@@ -687,6 +792,9 @@
     <t xml:space="preserve">FFQFP_15 </t>
   </si>
   <si>
+    <t>FFQFP_15 /1000</t>
+  </si>
+  <si>
     <t>TOT_SUGARS</t>
   </si>
   <si>
@@ -714,12 +822,21 @@
     <t>FFQKMT_15</t>
   </si>
   <si>
+    <t>FFQKMT_15/1000</t>
+  </si>
+  <si>
     <t>FRUC</t>
   </si>
   <si>
     <t>Fructose intake [g/d]</t>
   </si>
   <si>
+    <t>FFQKMF_15</t>
+  </si>
+  <si>
+    <t>FFQKMF_15/1000</t>
+  </si>
+  <si>
     <t>GI</t>
   </si>
   <si>
@@ -741,6 +858,12 @@
     <t>Sodium intake [g/d]</t>
   </si>
   <si>
+    <t>FFQMNA_15</t>
+  </si>
+  <si>
+    <t>FFQMNA_15/1000</t>
+  </si>
+  <si>
     <t>SOD_POT_RATIO</t>
   </si>
   <si>
@@ -750,6 +873,10 @@
     <t>num</t>
   </si>
   <si>
+    <t>FFQMK_15;
+FFQMNA_15</t>
+  </si>
+  <si>
     <t>FFQMK_15/FFQMNA_15</t>
   </si>
   <si>
@@ -759,7 +886,11 @@
     <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
   </si>
   <si>
-    <t>operation/other</t>
+    <t>FFQSCHOKOL_15;
+FFQSCHOKOR_15;
+FFQGUMMIB_15;
+FFQZUCK_15;
+FFQEIS_15</t>
   </si>
   <si>
     <t>FFQSCHOKOL_15 +
@@ -775,6 +906,13 @@
     <t>Intake of cakes and fine bakery wares [g/d]</t>
   </si>
   <si>
+    <t>FFQKEKS_15;
+FFQOBSTK_15;
+FFQTORTE_15;
+FFQGEBAE_15;
+FFQRUEHRK_15</t>
+  </si>
+  <si>
     <t xml:space="preserve">FFQKEKS_15 +
 FFQOBSTK_15 +
 FFQTORTE_15 +
@@ -788,6 +926,12 @@
     <t>Intake of fruit and vegetable juices and nectars [g/d]</t>
   </si>
   <si>
+    <t>FFQNEKT_15;
+FFQFRSAFT_15;
+FFQGESAFT_15;
+FFQSCHOR_15;</t>
+  </si>
+  <si>
     <t>FFQNEKT_15 +
 FFQFRSAFT_15 +
 FFQGESAFT_15 + 
@@ -800,6 +944,10 @@
     <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
   </si>
   <si>
+    <t>FFQENERG_15;
+FFQCOLA_15</t>
+  </si>
+  <si>
     <t xml:space="preserve">FFQENERG_15 +
 FFQCOLA_15  </t>
   </si>
@@ -814,6 +962,13 @@
   </si>
   <si>
     <t>Vegetable intake [g/d]</t>
+  </si>
+  <si>
+    <t>FFQSALAT_15;
+FFQKOHL_15;
+FFQSPIN_15;
+FFQPAPR_15;
+FFQKAROT_15</t>
   </si>
   <si>
     <t>FFQSALAT_15 +
@@ -835,24 +990,22 @@
     <t>intake of any type of RPCs of fruit nature [g/d]</t>
   </si>
   <si>
-    <t>FFQAPFEL_15 +
-FFQBEERE_15 +
-FFQSUED_15</t>
-  </si>
-  <si>
     <t>RED_MEAT_0701</t>
   </si>
   <si>
     <t>Intake of red meat (mammals meat) [g/d]</t>
   </si>
   <si>
-    <t>FFQSGRUREDMEAT_15</t>
-  </si>
-  <si>
     <t>PROCMEAT_0704</t>
   </si>
   <si>
     <t>Intake of processed or preserved meat [g/d]</t>
+  </si>
+  <si>
+    <t>FFQAUFSCH_15;
+FFQBOCK_15;
+FFQBRAT_15;
+FFQSALAM_15</t>
   </si>
   <si>
     <t>FFQAUFSCH_15 +
@@ -876,133 +1029,90 @@
     <t xml:space="preserve">FFQTEE_15 </t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>MUTBILD_0;
-VATBILD_0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDL_15 </t>
-  </si>
-  <si>
-    <t>bluthochmut_15;
-bluthochvat_15</t>
-  </si>
-  <si>
-    <t>diabmut_15;
-diabvat_15</t>
-  </si>
-  <si>
-    <t>FFQAUFSCH_15;
-FFQBOCK_15;
-FFQBRAT_15;
-FFQSALAM_15</t>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>FFQs</t>
   </si>
   <si>
     <t>FFQAPFEL_15;
 FFQBEERE_15;
-FFQSUED_15;</t>
-  </si>
-  <si>
-    <t>FFQSALAT_15;
-FFQKOHL_15;
-FFQSPIN_15;
-FFQPAPR_15;
-FFQKAROT_15</t>
-  </si>
-  <si>
-    <t>FFQENERG_15;
-FFQCOLA_15</t>
-  </si>
-  <si>
-    <t>FFQNEKT_15;
-FFQFRSAFT_15;
-FFQGESAFT_15;
-FFQSCHOR_15;</t>
-  </si>
-  <si>
-    <t>FFQKEKS_15;
-FFQOBSTK_15;
-FFQTORTE_15;
-FFQGEBAE_15;
-FFQRUEHRK_15</t>
-  </si>
-  <si>
-    <t>FFQSCHOKOL_15;
-FFQSCHOKOR_15;
-FFQGUMMIB_15;
-FFQZUCK_15;
-FFQEIS_15</t>
-  </si>
-  <si>
-    <t>FFQMK_15;
-FFQMNA_15</t>
-  </si>
-  <si>
-    <t>mutberuztak3_15;
-vatberuztak3_15</t>
-  </si>
-  <si>
-    <t>recode(1 = 1; 2=2; 3=2; 4=2; 5= 7;)</t>
-  </si>
-  <si>
-    <t>KIbmi_20</t>
-  </si>
-  <si>
-    <t>FFQZK_15/1000</t>
-  </si>
-  <si>
-    <t>FFQZE_15/1000</t>
-  </si>
-  <si>
-    <t>FFQZF_15/1000</t>
-  </si>
-  <si>
-    <t>FFQZA_15/1000</t>
-  </si>
-  <si>
-    <t>FFQZB_15/1000</t>
-  </si>
-  <si>
-    <t>FFQFS_15/1000</t>
-  </si>
-  <si>
-    <t>FFQFU_15/1000</t>
-  </si>
-  <si>
-    <t>FFQFP_15 /1000</t>
-  </si>
-  <si>
-    <t>FFQKMT_15/1000</t>
-  </si>
-  <si>
-    <t>FFQKMF_15</t>
-  </si>
-  <si>
-    <t>FFQKMF_15/1000</t>
-  </si>
-  <si>
-    <t>FFQMNA_15</t>
-  </si>
-  <si>
-    <t>FFQMNA_15/1000</t>
-  </si>
-  <si>
-    <t>dataschema_variable</t>
-  </si>
-  <si>
-    <t>KE_menstr_15</t>
+FFQSUED_15;
+FFQNUSS_15</t>
+  </si>
+  <si>
+    <t>FFQAPFEL_15 +
+FFQBEERE_15 +
+FFQSUED_15 +
+FFQNUSS_15</t>
+  </si>
+  <si>
+    <t>FFQRIND_15;
+FFQSCHW_15</t>
+  </si>
+  <si>
+    <t>FFQRIND_15 +
+FFQSCHW_15</t>
+  </si>
+  <si>
+    <t>case_when(
+      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
+      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
+      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 2L, 
+      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 3L, 
+      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
+      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
+      TRUE ~ NA_integer_
+    )</t>
+  </si>
+  <si>
+    <t>case_when(
+      mutberuztak3_15 == 1 | vatberuztak3_15 == 1 ~ 1L,
+      mutberuztak3_15 %in% 2:4 | vatberuztak3_15 %in% 2:4 ~ 2L,  
+      mutberuztak3_15 == 5 &amp; vatberuztak3_15 == 5 ~ 5L,
+      is.na(mutberuztak3_15) &amp; vatberuztak3_15 == 5 ~ 5L,
+      is.na(vatberuztak3_15) &amp; mutberuztak3_15 == 5 ~ 5L,
+      is.na(mutberuztak3_15) &amp; is.na(vatberuztak3_15) ~ 7L,
+      TRUE ~ NA_integer_
+    )</t>
+  </si>
+  <si>
+    <t>case_when (
+  diabmut_15 == 1 | diabvat_15 == 1 ~ 1L,
+  diabmut_15 == 0 &amp; diabvat_15 == 0 ~ 0L,
+  (is.na(diabmut_15) | diabmut_15 == 3) &amp; diabvat_15 == 0 ~ NA_integer_,
+  (is.na(diabvat_15) | diabvat_15 == 3) &amp; diabmut_15 == 0 ~ NA_integer_,
+  (is.na(diabmut_15) | diabmut_15 == 3) &amp; (is.na(diabvat_15) | diabvat_15 == 3) ~ NA_integer_, 
+  TRUE ~ NA_integer_
+)</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2= 0; ELSE= NA)</t>
+  </si>
+  <si>
+    <t>FFQ_GI_15</t>
+  </si>
+  <si>
+    <t>FFQ_GL_15</t>
+  </si>
+  <si>
+    <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,6 +1161,35 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="WordVisi_MSFontService"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1066,10 +1205,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1078,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1099,18 +1256,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1131,18 +1278,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1469,8 +1635,8 @@
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="46" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
@@ -1480,70 +1646,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="30">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1551,32 +1717,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
@@ -1584,97 +1750,102 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="30">
-      <c r="A5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="210">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="30">
-      <c r="A6" s="6">
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="225">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>31</v>
+      <c r="H6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1682,58 +1853,66 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="30">
-      <c r="A8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="105">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>27</v>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30">
@@ -1741,63 +1920,63 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>31</v>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
@@ -1805,31 +1984,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
@@ -1837,31 +2016,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30">
@@ -1869,31 +2048,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45">
@@ -1901,60 +2080,67 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30">
@@ -1962,81 +2148,97 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="30">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="30">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>31</v>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2044,31 +2246,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2076,32 +2278,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2109,32 +2311,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2142,32 +2344,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2175,32 +2377,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2208,31 +2410,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2240,31 +2442,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
@@ -2272,127 +2474,128 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="180">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="45">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="30">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>31</v>
+      <c r="K29" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30">
@@ -2400,31 +2603,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2432,31 +2635,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2464,31 +2667,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2496,31 +2699,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2528,31 +2731,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2560,31 +2763,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2592,31 +2795,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>105</v>
+        <v>118</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30">
@@ -2624,31 +2827,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>107</v>
+        <v>120</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2656,31 +2859,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>109</v>
+        <v>122</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45">
@@ -2688,31 +2891,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30">
@@ -2720,31 +2923,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>113</v>
+        <v>126</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2752,31 +2955,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30">
@@ -2784,31 +2987,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30">
@@ -2816,31 +3019,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30">
@@ -2848,31 +3051,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>121</v>
+        <v>134</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30">
@@ -2880,31 +3083,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>123</v>
+        <v>136</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2912,31 +3115,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>125</v>
+        <v>138</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2944,31 +3147,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>127</v>
+        <v>140</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="45">
@@ -2976,31 +3179,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="45">
@@ -3008,31 +3211,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>131</v>
+        <v>144</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="30">
@@ -3040,31 +3243,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30">
@@ -3072,31 +3275,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>135</v>
+        <v>148</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30">
@@ -3104,31 +3307,31 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>137</v>
+        <v>150</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30">
@@ -3136,31 +3339,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30">
@@ -3168,31 +3371,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>141</v>
+        <v>154</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30">
@@ -3200,31 +3403,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="30">
@@ -3232,31 +3435,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30">
@@ -3264,63 +3467,64 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="6" customFormat="1">
-      <c r="A58" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>27</v>
+      <c r="B58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3328,32 +3532,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3361,31 +3562,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30">
@@ -3393,31 +3595,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>157</v>
+        <v>169</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3425,31 +3627,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>159</v>
+        <v>171</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="30">
@@ -3457,31 +3659,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="30">
@@ -3489,31 +3691,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3521,31 +3723,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>165</v>
+        <v>177</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3553,30 +3755,30 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>167</v>
+        <v>179</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3584,109 +3786,117 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>170</v>
+        <v>182</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="45">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>171</v>
+      <c r="B68" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="45">
-      <c r="A69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="45">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>175</v>
+      <c r="B69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>178</v>
+        <v>191</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3694,26 +3904,26 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>180</v>
+        <v>193</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3721,26 +3931,26 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3748,142 +3958,146 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>184</v>
+        <v>197</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="6" customFormat="1">
-      <c r="A74" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="10" t="s">
+      <c r="B74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>192</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>195</v>
+        <v>14</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="I77" s="24" t="s">
+        <v>209</v>
+      </c>
       <c r="J77" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3891,32 +4105,30 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>197</v>
+        <v>210</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>198</v>
+        <v>14</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>293</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3924,32 +4136,30 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>200</v>
+        <v>213</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>294</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3957,32 +4167,32 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>203</v>
+        <v>216</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3990,32 +4200,32 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>206</v>
+        <v>220</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4023,32 +4233,32 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>209</v>
+        <v>224</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4056,32 +4266,32 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>212</v>
+        <v>228</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4089,32 +4299,32 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>215</v>
+        <v>232</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4122,32 +4332,32 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>218</v>
+        <v>236</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4155,28 +4365,32 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4184,28 +4398,32 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>223</v>
+        <v>244</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4213,28 +4431,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4242,32 +4460,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>227</v>
+        <v>250</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4275,32 +4489,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>230</v>
+        <v>252</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4308,34 +4518,32 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>232</v>
+        <v>254</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4343,34 +4551,32 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>235</v>
+        <v>258</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4378,352 +4584,358 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>237</v>
+        <v>262</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="30">
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>239</v>
+        <v>265</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="75">
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>243</v>
+        <v>267</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>288</v>
+        <v>14</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>245</v>
+        <v>44</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="30">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>247</v>
+        <v>271</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>248</v>
+        <v>44</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="75">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>250</v>
+        <v>276</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="75">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>253</v>
+        <v>280</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="60">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>256</v>
+        <v>284</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="G99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H99" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>258</v>
+        <v>288</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="45">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>261</v>
+        <v>292</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="75">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>263</v>
+        <v>294</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>266</v>
+        <v>298</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>299</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="60">
@@ -4731,106 +4943,198 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>269</v>
+        <v>300</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>272</v>
+        <v>302</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="G105" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H105" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="60">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>275</v>
+        <v>14</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="B107" s="2"/>
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="B108" s="2"/>
-      <c r="C108" s="21"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="B109" s="2"/>
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" t="s">
+        <v>314</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" s="2"/>
+      <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" s="2"/>
@@ -4888,6 +5192,12 @@
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5137,15 +5447,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5157,8 +5458,17 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E4C23C-5443-4D46-AD7D-64A6D116AAF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -5177,14 +5487,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5193,4 +5495,12 @@
     <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C28429-97CF-430A-B239-424900291E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790FE3A-64EA-43A7-BE46-62096EBBCB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="328">
   <si>
     <t>Index</t>
   </si>
@@ -660,9 +660,6 @@
     <t>Fat mass index at baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">UB_fmi_15 </t>
-  </si>
-  <si>
     <t>BODY_FAT_FUP</t>
   </si>
   <si>
@@ -868,9 +865,6 @@
   </si>
   <si>
     <t>Sodium to potassium intake ratio [g/d]</t>
-  </si>
-  <si>
-    <t>num</t>
   </si>
   <si>
     <t>FFQMK_15;
@@ -1106,6 +1100,9 @@
   </si>
   <si>
     <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
+  </si>
+  <si>
+    <t>UB_fmi_15</t>
   </si>
 </sst>
 </file>
@@ -1625,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1801,7 +1798,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>29</v>
@@ -1836,7 +1833,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>34</v>
@@ -1970,7 +1967,7 @@
         <v>52</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
@@ -2524,7 +2521,7 @@
         <v>52</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
@@ -2586,7 +2583,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>105</v>
@@ -3772,7 +3769,9 @@
       <c r="G66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
         <v>16</v>
@@ -3803,7 +3802,9 @@
       <c r="G67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
         <v>16</v>
@@ -3832,7 +3833,9 @@
       <c r="G68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
         <v>16</v>
@@ -3890,7 +3893,9 @@
       <c r="G70" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
         <v>39</v>
@@ -3917,7 +3922,9 @@
       <c r="G71" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
         <v>39</v>
@@ -3944,7 +3951,9 @@
       <c r="G72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
         <v>39</v>
@@ -3971,7 +3980,9 @@
       <c r="G73" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
         <v>39</v>
@@ -4000,7 +4011,9 @@
       <c r="G74" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
         <v>39</v>
@@ -4026,12 +4039,14 @@
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
         <v>16</v>
@@ -4045,10 +4060,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
@@ -4058,7 +4073,9 @@
       <c r="G76" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
         <v>39</v>
@@ -4072,10 +4089,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>80</v>
@@ -4084,14 +4101,16 @@
         <v>14</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I77" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
@@ -4105,10 +4124,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
@@ -4117,12 +4136,14 @@
         <v>14</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H78" s="2"/>
+      <c r="H78" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
         <v>16</v>
@@ -4136,10 +4157,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>80</v>
@@ -4148,12 +4169,14 @@
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
         <v>16</v>
@@ -4167,10 +4190,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>80</v>
@@ -4179,13 +4202,13 @@
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
@@ -4200,10 +4223,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>80</v>
@@ -4212,13 +4235,13 @@
         <v>14</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
@@ -4233,10 +4256,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>80</v>
@@ -4245,13 +4268,13 @@
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
@@ -4266,10 +4289,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>80</v>
@@ -4278,13 +4301,13 @@
         <v>14</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
@@ -4299,10 +4322,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>80</v>
@@ -4311,13 +4334,13 @@
         <v>14</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
@@ -4332,10 +4355,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>80</v>
@@ -4344,13 +4367,13 @@
         <v>14</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
@@ -4365,10 +4388,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>80</v>
@@ -4377,13 +4400,13 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
@@ -4398,10 +4421,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>80</v>
@@ -4410,13 +4433,13 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
@@ -4431,10 +4454,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>80</v>
@@ -4446,7 +4469,9 @@
       <c r="G88" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
         <v>39</v>
@@ -4460,10 +4485,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>80</v>
@@ -4475,7 +4500,9 @@
       <c r="G89" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
         <v>39</v>
@@ -4489,10 +4516,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>80</v>
@@ -4504,7 +4531,9 @@
       <c r="G90" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
         <v>39</v>
@@ -4518,10 +4547,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>80</v>
@@ -4530,13 +4559,13 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -4551,10 +4580,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>80</v>
@@ -4563,13 +4592,13 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
@@ -4584,10 +4613,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>80</v>
@@ -4596,16 +4625,16 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -4619,10 +4648,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>80</v>
@@ -4631,16 +4660,16 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -4654,10 +4683,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>80</v>
@@ -4666,13 +4695,13 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
@@ -4687,25 +4716,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="D96" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -4720,25 +4749,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
@@ -4753,25 +4782,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
@@ -4786,25 +4815,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
@@ -4819,25 +4848,25 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
@@ -4852,13 +4881,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
@@ -4867,7 +4896,9 @@
       <c r="G101" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
         <v>39</v>
@@ -4881,25 +4912,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
@@ -4914,14 +4945,12 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
         <v>14</v>
       </c>
@@ -4929,7 +4958,9 @@
       <c r="G103" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
         <v>39</v>
@@ -4943,25 +4974,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
@@ -4976,25 +5007,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
@@ -5009,25 +5040,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
@@ -5042,13 +5073,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>14</v>
@@ -5057,7 +5088,9 @@
       <c r="G107" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
         <v>39</v>
@@ -5071,24 +5104,26 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
         <v>16</v>
@@ -5102,28 +5137,28 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C109" t="s">
+      <c r="G109" s="31" t="s">
         <v>314</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="G109" s="31" t="s">
-        <v>316</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J109" s="15" t="s">
         <v>16</v>
@@ -5206,6 +5241,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5446,18 +5493,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5468,6 +5503,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5486,17 +5532,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
   <ds:schemaRefs>

--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790FE3A-64EA-43A7-BE46-62096EBBCB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B210221-F2A7-4589-AC23-A8D6AF29A173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="329">
   <si>
     <t>Index</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>AGE_BASE</t>
-  </si>
-  <si>
-    <t>Age at exposure measure</t>
   </si>
   <si>
     <t>KIALTER_15</t>
@@ -164,9 +161,6 @@
     <t>TOT_PA_QX</t>
   </si>
   <si>
-    <t>Physical activity from questionnaire data</t>
-  </si>
-  <si>
     <t>aktivleiisommn_15;
 aktivleiwintn_15;
 aktivmitsommn_15;
@@ -191,9 +185,6 @@
     <t>TOT_PA_AC</t>
   </si>
   <si>
-    <t>Physical activity from accelerometry data</t>
-  </si>
-  <si>
     <t>SMOKE_ST</t>
   </si>
   <si>
@@ -209,21 +200,12 @@
     <t>TOBACCO_PY</t>
   </si>
   <si>
-    <t>Cumulative lifetime tobacco exposure</t>
-  </si>
-  <si>
     <t>TOBACCO_D</t>
   </si>
   <si>
-    <t>Amount of daily tobacco smoked</t>
-  </si>
-  <si>
     <t>AGE_SMOKE_QUIT</t>
   </si>
   <si>
-    <t>Age at time of quitting smoking</t>
-  </si>
-  <si>
     <t>MED_SUPPL</t>
   </si>
   <si>
@@ -260,33 +242,21 @@
     <t>CONTRACEPTIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">Use of contraceptive pills or injections </t>
-  </si>
-  <si>
     <t>Question asked for this variable is different for required variable for harmonisation</t>
   </si>
   <si>
     <t>LIVE_BIRTHS</t>
   </si>
   <si>
-    <t>Number of live births given</t>
-  </si>
-  <si>
     <t>children study</t>
   </si>
   <si>
     <t>AGE_FIRST_BIRTH</t>
   </si>
   <si>
-    <t>Age at the first given birth</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
-    <t>Triglycerides measured from blood samples</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -296,25 +266,16 @@
     <t>CHOL</t>
   </si>
   <si>
-    <t>Total cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHOL_15 </t>
   </si>
   <si>
     <t>LDL</t>
   </si>
   <si>
-    <t>LDL cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t xml:space="preserve">LDLC_15 </t>
   </si>
   <si>
     <t>HDL</t>
-  </si>
-  <si>
-    <t>HDL cholesterol measured from blood samples</t>
   </si>
   <si>
     <t xml:space="preserve">HDL_15 </t>
@@ -402,21 +363,12 @@
     <t>MELANOMA_SCREEN</t>
   </si>
   <si>
-    <t>Screening, Skin cancer</t>
-  </si>
-  <si>
     <t>MAMMO_SCREEN</t>
   </si>
   <si>
-    <t>Screening, Mammography</t>
-  </si>
-  <si>
     <t>CERVICAL_SCREEN</t>
   </si>
   <si>
-    <t>Cervical screening, smear test</t>
-  </si>
-  <si>
     <t>MED_STAT</t>
   </si>
   <si>
@@ -546,9 +498,6 @@
     <t>TYPE_CANCER</t>
   </si>
   <si>
-    <t>Type of cancer</t>
-  </si>
-  <si>
     <t>AGE_CANCER</t>
   </si>
   <si>
@@ -585,93 +534,54 @@
     <t>AGE_FUP</t>
   </si>
   <si>
-    <t>Age at end of follow-up</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
-    <t>Body Mass index at baseline</t>
-  </si>
-  <si>
     <t xml:space="preserve">UB_bmi_15 </t>
   </si>
   <si>
     <t>BMI_FUP</t>
   </si>
   <si>
-    <t>Body Mass index at follow-up</t>
-  </si>
-  <si>
     <t>KIbmi_20</t>
   </si>
   <si>
     <t>BMI_SDS</t>
   </si>
   <si>
-    <t>Body Mass index Standard Deviation Score at baseline (children studies)</t>
-  </si>
-  <si>
     <t xml:space="preserve">UB_khszscore_15 </t>
   </si>
   <si>
     <t>BMI_SDS_FUP</t>
   </si>
   <si>
-    <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
-  </si>
-  <si>
     <t>adult data</t>
   </si>
   <si>
     <t>WAIST_FUP</t>
   </si>
   <si>
-    <t>Waist circumference at follow-up</t>
-  </si>
-  <si>
     <t>WAIST</t>
   </si>
   <si>
-    <t>Waist circumference at baseline</t>
-  </si>
-  <si>
     <t>HIP</t>
   </si>
   <si>
-    <t>Hip circumference at baseline</t>
-  </si>
-  <si>
     <t>HIP_FUP</t>
   </si>
   <si>
-    <t>Hip circumference at follow-up</t>
-  </si>
-  <si>
     <t>FMI_FUP</t>
   </si>
   <si>
-    <t>Fat mass index at follow-up</t>
-  </si>
-  <si>
     <t>FMI</t>
   </si>
   <si>
-    <t>Fat mass index at baseline</t>
-  </si>
-  <si>
     <t>BODY_FAT_FUP</t>
   </si>
   <si>
-    <t>Body fat percentage at at follow-up</t>
-  </si>
-  <si>
     <t>BODY_FAT</t>
   </si>
   <si>
-    <t>Body fat percentage at at baseline</t>
-  </si>
-  <si>
     <t>UB_fbm_15</t>
   </si>
   <si>
@@ -681,9 +591,6 @@
     <t>AGE_ANTH_FUP</t>
   </si>
   <si>
-    <t>Age at anthropometric measurement during follow-up</t>
-  </si>
-  <si>
     <t>KIALTER_20</t>
   </si>
   <si>
@@ -844,9 +751,6 @@
   </si>
   <si>
     <t>GL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily glycaemic load </t>
   </si>
   <si>
     <t>SODIUM</t>
@@ -897,9 +801,6 @@
     <t>CAKES_12</t>
   </si>
   <si>
-    <t>Intake of cakes and fine bakery wares [g/d]</t>
-  </si>
-  <si>
     <t>FFQKEKS_15;
 FFQOBSTK_15;
 FFQTORTE_15;
@@ -917,9 +818,6 @@
     <t>FRUITVEG_JUICE_1301</t>
   </si>
   <si>
-    <t>Intake of fruit and vegetable juices and nectars [g/d]</t>
-  </si>
-  <si>
     <t>FFQNEKT_15;
 FFQFRSAFT_15;
 FFQGESAFT_15;
@@ -933,9 +831,6 @@
   </si>
   <si>
     <t>SOFTDRINKS_1302</t>
-  </si>
-  <si>
-    <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
   </si>
   <si>
     <t>FFQENERG_15;
@@ -975,13 +870,7 @@
     <t>LEGUMES_TOT_03</t>
   </si>
   <si>
-    <t>Legumes intake [g/d]</t>
-  </si>
-  <si>
     <t>FRUITS_TOT_04</t>
-  </si>
-  <si>
-    <t>intake of any type of RPCs of fruit nature [g/d]</t>
   </si>
   <si>
     <t>RED_MEAT_0701</t>
@@ -1104,12 +993,126 @@
   <si>
     <t>UB_fmi_15</t>
   </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Physical activity from accelerometry data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Cumulative lifetime tobacco exposure  [pack years]</t>
+  </si>
+  <si>
+    <t>Amount of daily tobacco smoked [g/day]</t>
+  </si>
+  <si>
+    <t>Age at time of quitting smoking [years]</t>
+  </si>
+  <si>
+    <t>Use of contraceptive pills or injections [years]</t>
+  </si>
+  <si>
+    <t>Number of live births given [Nr. of birth]</t>
+  </si>
+  <si>
+    <t>Age at the first given birth [years]</t>
+  </si>
+  <si>
+    <t>Triglycerides measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Total cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>LDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>HDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Screening, skin cancer</t>
+  </si>
+  <si>
+    <t>Screening, mammography</t>
+  </si>
+  <si>
+    <t>Screening cervical, smear test</t>
+  </si>
+  <si>
+    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18.3)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Age at end of follow-up [years]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at follow-up [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at baseline (children studies)</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at follow-up (children studies)</t>
+  </si>
+  <si>
+    <t>Waist circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Waist circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Fat mass index at follow-up  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Fat mass index at baseline  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body fat precent at follow-up [%]</t>
+  </si>
+  <si>
+    <t>Body fat precent at baseline  [%]</t>
+  </si>
+  <si>
+    <t>Age at anthropometric measurement at follow-up [years]</t>
+  </si>
+  <si>
+    <t>Daily glycaemic load</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fruit and vegetable juices [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of soft drinks [g/d]</t>
+  </si>
+  <si>
+    <t>Total legumes intake [g/d]</t>
+  </si>
+  <si>
+    <t>Total fruit intake [g/d]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,10 +1156,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1232,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1256,22 +1255,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1285,23 +1269,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1622,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,23 +1658,23 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="30">
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1716,10 +1700,10 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1749,17 +1733,17 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1772,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="210">
@@ -1780,34 +1764,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="225">
@@ -1815,34 +1799,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1850,31 +1834,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="105">
@@ -1882,66 +1866,66 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="H8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1">
@@ -1949,162 +1933,162 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1">
@@ -2112,12 +2096,12 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2125,32 +2109,32 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2158,32 +2142,32 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2191,19 +2175,19 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
@@ -2211,31 +2195,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2243,31 +2227,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>299</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2275,19 +2259,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -2300,7 +2284,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2308,19 +2292,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
@@ -2333,7 +2317,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2341,19 +2325,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -2366,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2374,19 +2358,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -2399,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2407,31 +2391,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2439,63 +2423,63 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
@@ -2503,61 +2487,61 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>99</v>
+      <c r="F27" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="180">
@@ -2565,66 +2549,66 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>105</v>
+      <c r="F29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2632,31 +2616,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2664,31 +2648,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2696,31 +2680,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2728,31 +2712,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2760,31 +2744,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2792,63 +2776,63 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2856,95 +2840,95 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2952,159 +2936,159 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3112,31 +3096,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3144,351 +3128,351 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
+        <v>136</v>
+      </c>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>13</v>
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>13</v>
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1">
@@ -3496,32 +3480,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="24"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3529,29 +3513,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" t="s">
+        <v>308</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3559,19 +3543,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>13</v>
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
@@ -3587,36 +3571,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3624,95 +3608,95 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="s">
+        <v>70</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3720,31 +3704,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>13</v>
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" t="s">
+        <v>70</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3752,19 +3736,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" t="s">
+        <v>70</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -3785,19 +3769,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>163</v>
+      </c>
+      <c r="C67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -3813,22 +3797,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="45">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C68" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -3841,38 +3827,40 @@
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="6" customFormat="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="18"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="23" t="s">
-        <v>190</v>
+        <v>38</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3880,28 +3868,30 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3909,28 +3899,30 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" t="s">
+        <v>70</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3938,28 +3930,30 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>316</v>
+      </c>
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3967,28 +3961,30 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" t="s">
+        <v>70</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1">
@@ -3996,30 +3992,30 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" t="s">
+        <v>70</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1">
@@ -4027,19 +4023,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" t="s">
+        <v>70</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4060,28 +4056,30 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>320</v>
+      </c>
+      <c r="D76" t="s">
+        <v>70</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1">
@@ -4089,19 +4087,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="24" t="s">
-        <v>207</v>
+      <c r="F77" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -4109,14 +4107,14 @@
       <c r="H77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="24" t="s">
-        <v>208</v>
+      <c r="I77" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4124,19 +4122,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
+      </c>
+      <c r="C78" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" t="s">
+        <v>70</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -4157,19 +4155,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>181</v>
+      </c>
+      <c r="C79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" t="s">
+        <v>70</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -4190,25 +4188,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>184</v>
+      </c>
+      <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" t="s">
+        <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
@@ -4223,25 +4221,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>188</v>
+      </c>
+      <c r="C81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
+        <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
@@ -4256,25 +4254,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" t="s">
+        <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
@@ -4289,25 +4287,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" t="s">
+        <v>70</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
@@ -4322,25 +4320,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>200</v>
+      </c>
+      <c r="C84" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" t="s">
+        <v>70</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
@@ -4355,25 +4353,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" t="s">
+        <v>70</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
@@ -4388,25 +4386,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>208</v>
+      </c>
+      <c r="C86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" t="s">
+        <v>70</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
@@ -4421,25 +4419,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>212</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" t="s">
+        <v>70</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
@@ -4454,30 +4452,30 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="C88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" t="s">
+        <v>70</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4485,30 +4483,30 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" t="s">
+        <v>70</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4516,30 +4514,30 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" t="s">
+        <v>70</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4547,25 +4545,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>222</v>
+      </c>
+      <c r="C91" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" t="s">
+        <v>70</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -4580,25 +4578,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>226</v>
+      </c>
+      <c r="C92" t="s">
+        <v>227</v>
+      </c>
+      <c r="D92" t="s">
+        <v>70</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
@@ -4613,19 +4611,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>230</v>
+      </c>
+      <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>70</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4634,7 +4632,7 @@
         <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -4648,19 +4646,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>233</v>
+      </c>
+      <c r="C94" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94" t="s">
+        <v>70</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4669,7 +4667,7 @@
         <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -4683,25 +4681,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" t="s">
+        <v>70</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
@@ -4716,25 +4714,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>238</v>
+      </c>
+      <c r="C96" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" t="s">
+        <v>70</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -4749,32 +4747,32 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>242</v>
+      </c>
+      <c r="C97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" t="s">
+        <v>70</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="75">
@@ -4782,32 +4780,32 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>246</v>
+      </c>
+      <c r="C98" t="s">
+        <v>324</v>
+      </c>
+      <c r="D98" t="s">
+        <v>70</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="60">
@@ -4815,32 +4813,32 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>80</v>
+        <v>249</v>
+      </c>
+      <c r="C99" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" t="s">
+        <v>70</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="30">
@@ -4848,63 +4846,63 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>80</v>
+        <v>252</v>
+      </c>
+      <c r="C100" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" t="s">
+        <v>70</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>80</v>
+        <v>255</v>
+      </c>
+      <c r="C101" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" t="s">
+        <v>70</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="75">
@@ -4912,32 +4910,32 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>80</v>
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" t="s">
+        <v>70</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4945,28 +4943,30 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D103" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C103" t="s">
+        <v>327</v>
+      </c>
+      <c r="D103" t="s">
+        <v>70</v>
+      </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="60">
@@ -4974,32 +4974,32 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>80</v>
+        <v>262</v>
+      </c>
+      <c r="C104" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104" t="s">
+        <v>70</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30">
@@ -5007,32 +5007,32 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>80</v>
+        <v>263</v>
+      </c>
+      <c r="C105" t="s">
+        <v>264</v>
+      </c>
+      <c r="D105" t="s">
+        <v>70</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="60">
@@ -5040,32 +5040,32 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>80</v>
+        <v>265</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" t="s">
+        <v>70</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5073,30 +5073,30 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>80</v>
+        <v>269</v>
+      </c>
+      <c r="C107" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" t="s">
+        <v>70</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5104,19 +5104,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>80</v>
+        <v>271</v>
+      </c>
+      <c r="C108" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" t="s">
+        <v>70</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5137,39 +5137,39 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="C109" t="s">
-        <v>312</v>
-      </c>
-      <c r="D109" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="G109" s="31" t="s">
-        <v>314</v>
+      <c r="E109" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="J109" s="15" t="s">
+      <c r="I109" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K109" s="15" t="s">
+      <c r="K109" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" s="2"/>
-      <c r="C110" s="17"/>
+      <c r="C110" s="12"/>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" s="2"/>
@@ -5241,15 +5241,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5494,21 +5491,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5533,9 +5530,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B210221-F2A7-4589-AC23-A8D6AF29A173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A6D52-CFE2-45E4-9CBE-C1CFDD0A8995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -924,9 +924,6 @@
     <t>paste</t>
   </si>
   <si>
-    <t>FFQs</t>
-  </si>
-  <si>
     <t>FFQAPFEL_15;
 FFQBEERE_15;
 FFQSUED_15;
@@ -1106,6 +1103,9 @@
   </si>
   <si>
     <t>Total fruit intake [g/d]</t>
+  </si>
+  <si>
+    <t>1 (FFQ)</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1734,7 +1734,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1782,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
@@ -1817,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>33</v>
@@ -1869,7 +1869,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -1904,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1951,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
@@ -1968,7 +1968,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -2000,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -2032,7 +2032,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2198,7 +2198,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2230,7 +2230,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -2262,7 +2262,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -2295,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -2328,7 +2328,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -2361,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -2505,7 +2505,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>92</v>
@@ -2747,7 +2747,7 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2779,7 +2779,7 @@
         <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2811,7 +2811,7 @@
         <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -3516,10 +3516,10 @@
         <v>148</v>
       </c>
       <c r="C59" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" t="s">
         <v>307</v>
-      </c>
-      <c r="D59" t="s">
-        <v>308</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -3707,7 +3707,7 @@
         <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
@@ -3739,7 +3739,7 @@
         <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
         <v>70</v>
@@ -3772,7 +3772,7 @@
         <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -3805,7 +3805,7 @@
         <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -3838,7 +3838,7 @@
         <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -3871,7 +3871,7 @@
         <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -3902,7 +3902,7 @@
         <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
@@ -3933,7 +3933,7 @@
         <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -3964,7 +3964,7 @@
         <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D73" t="s">
         <v>70</v>
@@ -3995,7 +3995,7 @@
         <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D74" t="s">
         <v>70</v>
@@ -4026,7 +4026,7 @@
         <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D75" t="s">
         <v>70</v>
@@ -4035,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4059,7 +4059,7 @@
         <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D76" t="s">
         <v>70</v>
@@ -4090,7 +4090,7 @@
         <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D77" t="s">
         <v>70</v>
@@ -4125,7 +4125,7 @@
         <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D78" t="s">
         <v>70</v>
@@ -4623,7 +4623,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4649,7 +4649,7 @@
         <v>233</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D94" t="s">
         <v>70</v>
@@ -4658,7 +4658,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4783,7 +4783,7 @@
         <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D98" t="s">
         <v>70</v>
@@ -4816,7 +4816,7 @@
         <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D99" t="s">
         <v>70</v>
@@ -4849,7 +4849,7 @@
         <v>252</v>
       </c>
       <c r="C100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D100" t="s">
         <v>70</v>
@@ -4946,7 +4946,7 @@
         <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D103" t="s">
         <v>70</v>
@@ -4977,7 +4977,7 @@
         <v>262</v>
       </c>
       <c r="C104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D104" t="s">
         <v>70</v>
@@ -4986,13 +4986,13 @@
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
@@ -5019,13 +5019,13 @@
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>16</v>
@@ -5241,12 +5241,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5491,21 +5494,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5530,12 +5533,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A6D52-CFE2-45E4-9CBE-C1CFDD0A8995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE5B33-B9C7-4B42-851D-34E230349DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -979,12 +979,6 @@
     <t>recode(1=1; 2= 0; ELSE= NA)</t>
   </si>
   <si>
-    <t>FFQ_GI_15</t>
-  </si>
-  <si>
-    <t>FFQ_GL_15</t>
-  </si>
-  <si>
     <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
   </si>
   <si>
@@ -1106,6 +1100,12 @@
   </si>
   <si>
     <t>1 (FFQ)</t>
+  </si>
+  <si>
+    <t>FFQGI_15</t>
+  </si>
+  <si>
+    <t>FFQGL_15</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1734,7 +1734,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1869,7 +1869,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -1904,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1951,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
@@ -1968,7 +1968,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -2000,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -2032,7 +2032,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2198,7 +2198,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2230,7 +2230,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -2262,7 +2262,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -2295,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -2328,7 +2328,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -2361,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -2747,7 +2747,7 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2779,7 +2779,7 @@
         <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2811,7 +2811,7 @@
         <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -3516,10 +3516,10 @@
         <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -3707,7 +3707,7 @@
         <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
@@ -3739,7 +3739,7 @@
         <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D66" t="s">
         <v>70</v>
@@ -3772,7 +3772,7 @@
         <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -3805,7 +3805,7 @@
         <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -3838,7 +3838,7 @@
         <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -3871,7 +3871,7 @@
         <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -3902,7 +3902,7 @@
         <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
@@ -3933,7 +3933,7 @@
         <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -3964,7 +3964,7 @@
         <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D73" t="s">
         <v>70</v>
@@ -3995,7 +3995,7 @@
         <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D74" t="s">
         <v>70</v>
@@ -4026,7 +4026,7 @@
         <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D75" t="s">
         <v>70</v>
@@ -4035,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4059,7 +4059,7 @@
         <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D76" t="s">
         <v>70</v>
@@ -4090,7 +4090,7 @@
         <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
         <v>70</v>
@@ -4125,7 +4125,7 @@
         <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D78" t="s">
         <v>70</v>
@@ -4623,7 +4623,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4649,7 +4649,7 @@
         <v>233</v>
       </c>
       <c r="C94" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D94" t="s">
         <v>70</v>
@@ -4658,7 +4658,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4783,7 +4783,7 @@
         <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D98" t="s">
         <v>70</v>
@@ -4816,7 +4816,7 @@
         <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D99" t="s">
         <v>70</v>
@@ -4849,7 +4849,7 @@
         <v>252</v>
       </c>
       <c r="C100" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D100" t="s">
         <v>70</v>
@@ -4946,7 +4946,7 @@
         <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D103" t="s">
         <v>70</v>
@@ -4977,7 +4977,7 @@
         <v>262</v>
       </c>
       <c r="C104" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D104" t="s">
         <v>70</v>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>16</v>
@@ -5241,15 +5241,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5494,21 +5491,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5533,9 +5530,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE5B33-B9C7-4B42-851D-34E230349DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7220B1A-0CED-4387-A7FD-A4C871AC355F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>AGE_CVD</t>
   </si>
   <si>
-    <t>Age at diagnosis of CVD</t>
-  </si>
-  <si>
     <t>INC_ANGINA</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>AGE_ANGINA</t>
   </si>
   <si>
-    <t>Age at diagnosis of angina pectoris</t>
-  </si>
-  <si>
     <t>INC_MI</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>AGE_MI</t>
   </si>
   <si>
-    <t>Age at diagnosis of myocardial infarction</t>
-  </si>
-  <si>
     <t>INC_STR</t>
   </si>
   <si>
@@ -426,9 +417,6 @@
     <t>AGE_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of stroke</t>
-  </si>
-  <si>
     <t>INC_ISC_STR</t>
   </si>
   <si>
@@ -438,9 +426,6 @@
     <t>AGE_ISC_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of cerebral infarction (ischaemic stroke)</t>
-  </si>
-  <si>
     <t>INC_HAEMO_STR</t>
   </si>
   <si>
@@ -450,9 +435,6 @@
     <t>AGE_HAEMO_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of haemorrhagic stroke</t>
-  </si>
-  <si>
     <t>INC_HYP</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>AGE_HYP</t>
   </si>
   <si>
-    <t>Age at diagnosis of essential hypertension</t>
-  </si>
-  <si>
     <t>INC_HF</t>
   </si>
   <si>
@@ -474,9 +453,6 @@
     <t>AGE_HF</t>
   </si>
   <si>
-    <t>Age at diagnosis of heart failure</t>
-  </si>
-  <si>
     <t>INC_DIAB2</t>
   </si>
   <si>
@@ -486,9 +462,6 @@
     <t>AGE_DIAB2</t>
   </si>
   <si>
-    <t>Age at diagnosis of diabetes mellitus type 2</t>
-  </si>
-  <si>
     <t>INC_CANCER</t>
   </si>
   <si>
@@ -501,9 +474,6 @@
     <t>AGE_CANCER</t>
   </si>
   <si>
-    <t>Age at diagnosis of cancer</t>
-  </si>
-  <si>
     <t>maligjeadalt_15</t>
   </si>
   <si>
@@ -514,9 +484,6 @@
   </si>
   <si>
     <t>AGE_DEATH</t>
-  </si>
-  <si>
-    <t>Age at time of death</t>
   </si>
   <si>
     <t>VITAL_ST_CVD</t>
@@ -1106,6 +1073,39 @@
   </si>
   <si>
     <t>FFQGL_15</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of CVD [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of angina pectoris [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of myocardial infarction [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cerebral infarction (ischaemic stroke) [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of haemorrhagic stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of essential hypertension [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of heart failure [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of diabetes mellitus type 2 [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cancer [years]</t>
+  </si>
+  <si>
+    <t>Age at time of death [years]</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1734,7 +1734,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1782,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
@@ -1817,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>33</v>
@@ -1869,7 +1869,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -1904,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1951,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
@@ -1968,7 +1968,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -2000,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -2032,7 +2032,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2198,7 +2198,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2230,7 +2230,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -2262,7 +2262,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -2295,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -2328,7 +2328,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -2361,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -2505,7 +2505,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>92</v>
@@ -2747,7 +2747,7 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2779,7 +2779,7 @@
         <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2811,7 +2811,7 @@
         <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2939,7 +2939,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>318</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
@@ -2968,10 +2968,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
         <v>114</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3000,10 +3000,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
@@ -3032,10 +3032,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3064,10 +3064,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
@@ -3096,10 +3096,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3128,10 +3128,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
@@ -3160,10 +3160,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3192,10 +3192,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
@@ -3224,10 +3224,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3256,10 +3256,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="D51" t="s">
         <v>70</v>
@@ -3288,10 +3288,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3320,10 +3320,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
@@ -3352,10 +3352,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3384,10 +3384,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -3416,10 +3416,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3448,10 +3448,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>326</v>
       </c>
       <c r="D57" t="s">
         <v>70</v>
@@ -3480,10 +3480,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3513,13 +3513,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -3543,10 +3543,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="D60" t="s">
         <v>70</v>
@@ -3555,7 +3555,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
@@ -3576,10 +3576,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3608,10 +3608,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="D62" t="s">
         <v>70</v>
@@ -3640,10 +3640,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3672,10 +3672,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3704,10 +3704,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
@@ -3736,10 +3736,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
         <v>70</v>
@@ -3748,7 +3748,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -3769,10 +3769,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -3781,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -3802,10 +3802,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -3814,7 +3814,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -3835,10 +3835,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -3854,7 +3854,7 @@
         <v>38</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>38</v>
@@ -3868,10 +3868,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -3899,10 +3899,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
@@ -3930,10 +3930,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D73" t="s">
         <v>70</v>
@@ -3992,10 +3992,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D74" t="s">
         <v>70</v>
@@ -4023,10 +4023,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D75" t="s">
         <v>70</v>
@@ -4035,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4056,10 +4056,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
         <v>70</v>
@@ -4087,10 +4087,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D77" t="s">
         <v>70</v>
@@ -4099,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -4108,7 +4108,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
@@ -4122,10 +4122,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D78" t="s">
         <v>70</v>
@@ -4134,7 +4134,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -4155,10 +4155,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
         <v>70</v>
@@ -4167,7 +4167,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -4188,10 +4188,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
         <v>70</v>
@@ -4200,13 +4200,13 @@
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
@@ -4221,10 +4221,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s">
         <v>70</v>
@@ -4233,13 +4233,13 @@
         <v>14</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
@@ -4254,10 +4254,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
         <v>70</v>
@@ -4266,13 +4266,13 @@
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
@@ -4287,10 +4287,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D83" t="s">
         <v>70</v>
@@ -4299,13 +4299,13 @@
         <v>14</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
@@ -4320,10 +4320,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
         <v>70</v>
@@ -4332,13 +4332,13 @@
         <v>14</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
@@ -4353,10 +4353,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
         <v>70</v>
@@ -4365,13 +4365,13 @@
         <v>14</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
@@ -4386,10 +4386,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s">
         <v>70</v>
@@ -4398,13 +4398,13 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
@@ -4419,10 +4419,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
         <v>70</v>
@@ -4431,13 +4431,13 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
@@ -4452,10 +4452,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
         <v>70</v>
@@ -4483,10 +4483,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D89" t="s">
         <v>70</v>
@@ -4514,10 +4514,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D90" t="s">
         <v>70</v>
@@ -4545,10 +4545,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
         <v>70</v>
@@ -4557,13 +4557,13 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -4578,10 +4578,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
         <v>70</v>
@@ -4590,13 +4590,13 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
@@ -4611,10 +4611,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D93" t="s">
         <v>70</v>
@@ -4623,7 +4623,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4632,7 +4632,7 @@
         <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -4646,10 +4646,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C94" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
         <v>70</v>
@@ -4658,7 +4658,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4667,7 +4667,7 @@
         <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -4681,10 +4681,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D95" t="s">
         <v>70</v>
@@ -4693,13 +4693,13 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
@@ -4714,10 +4714,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D96" t="s">
         <v>70</v>
@@ -4726,13 +4726,13 @@
         <v>14</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -4747,10 +4747,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
         <v>70</v>
@@ -4759,13 +4759,13 @@
         <v>14</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
@@ -4780,10 +4780,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
         <v>70</v>
@@ -4792,13 +4792,13 @@
         <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
@@ -4813,10 +4813,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C99" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D99" t="s">
         <v>70</v>
@@ -4825,13 +4825,13 @@
         <v>14</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
@@ -4846,10 +4846,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
         <v>70</v>
@@ -4858,13 +4858,13 @@
         <v>14</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
@@ -4879,10 +4879,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D101" t="s">
         <v>70</v>
@@ -4910,10 +4910,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D102" t="s">
         <v>70</v>
@@ -4922,13 +4922,13 @@
         <v>14</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
@@ -4943,10 +4943,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D103" t="s">
         <v>70</v>
@@ -4974,10 +4974,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C104" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D104" t="s">
         <v>70</v>
@@ -4986,13 +4986,13 @@
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
@@ -5007,10 +5007,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D105" t="s">
         <v>70</v>
@@ -5019,13 +5019,13 @@
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
@@ -5040,10 +5040,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D106" t="s">
         <v>70</v>
@@ -5052,13 +5052,13 @@
         <v>14</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
@@ -5073,10 +5073,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
         <v>70</v>
@@ -5104,10 +5104,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D108" t="s">
         <v>70</v>
@@ -5116,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5137,10 +5137,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C109" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5149,16 +5149,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>16</v>
@@ -5241,15 +5241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5490,6 +5481,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5503,14 +5503,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5529,6 +5521,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>

--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7220B1A-0CED-4387-A7FD-A4C871AC355F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32795D60-EBC8-4A64-8AA9-D29B16C6F5A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -324,12 +324,6 @@
 diabvat_15</t>
   </si>
   <si>
-    <t>If either parent has diabetes, the family history is marked as 1.
-If both parents do not have diabetes, the family history is marked as 0.
-If one parent's status is missing or unknown (NA or 3), use the other parent’s status. If the known parent has diabetes, the family history is marked as 1, and if the known parent does not have diabetes, the family history is marked as NA.
-If both parents' statuses are missing -&gt; "" or unknown -&gt; 888, the family history is marked as NA (insufficient data).</t>
-  </si>
-  <si>
     <t>FAM1_CANCER</t>
   </si>
   <si>
@@ -933,179 +927,184 @@
     )</t>
   </si>
   <si>
+    <t>recode(1=1; 2= 0; ELSE= NA)</t>
+  </si>
+  <si>
+    <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
+  </si>
+  <si>
+    <t>UB_fmi_15</t>
+  </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Physical activity from accelerometry data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Cumulative lifetime tobacco exposure  [pack years]</t>
+  </si>
+  <si>
+    <t>Amount of daily tobacco smoked [g/day]</t>
+  </si>
+  <si>
+    <t>Age at time of quitting smoking [years]</t>
+  </si>
+  <si>
+    <t>Use of contraceptive pills or injections [years]</t>
+  </si>
+  <si>
+    <t>Number of live births given [Nr. of birth]</t>
+  </si>
+  <si>
+    <t>Age at the first given birth [years]</t>
+  </si>
+  <si>
+    <t>Triglycerides measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Total cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>LDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>HDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Screening, skin cancer</t>
+  </si>
+  <si>
+    <t>Screening, mammography</t>
+  </si>
+  <si>
+    <t>Screening cervical, smear test</t>
+  </si>
+  <si>
+    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18.3)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Age at end of follow-up [years]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at follow-up [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at baseline (children studies)</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at follow-up (children studies)</t>
+  </si>
+  <si>
+    <t>Waist circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Waist circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Fat mass index at follow-up  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Fat mass index at baseline  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body fat precent at follow-up [%]</t>
+  </si>
+  <si>
+    <t>Body fat precent at baseline  [%]</t>
+  </si>
+  <si>
+    <t>Age at anthropometric measurement at follow-up [years]</t>
+  </si>
+  <si>
+    <t>Daily glycaemic load</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fruit and vegetable juices [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of soft drinks [g/d]</t>
+  </si>
+  <si>
+    <t>Total legumes intake [g/d]</t>
+  </si>
+  <si>
+    <t>Total fruit intake [g/d]</t>
+  </si>
+  <si>
+    <t>1 (FFQ)</t>
+  </si>
+  <si>
+    <t>FFQGI_15</t>
+  </si>
+  <si>
+    <t>FFQGL_15</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of CVD [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of angina pectoris [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of myocardial infarction [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cerebral infarction (ischaemic stroke) [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of haemorrhagic stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of essential hypertension [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of heart failure [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of diabetes mellitus type 2 [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cancer [years]</t>
+  </si>
+  <si>
+    <t>Age at time of death [years]</t>
+  </si>
+  <si>
     <t>case_when (
   diabmut_15 == 1 | diabvat_15 == 1 ~ 1L,
   diabmut_15 == 0 &amp; diabvat_15 == 0 ~ 0L,
-  (is.na(diabmut_15) | diabmut_15 == 3) &amp; diabvat_15 == 0 ~ NA_integer_,
-  (is.na(diabvat_15) | diabvat_15 == 3) &amp; diabmut_15 == 0 ~ NA_integer_,
-  (is.na(diabmut_15) | diabmut_15 == 3) &amp; (is.na(diabvat_15) | diabvat_15 == 3) ~ NA_integer_, 
+   diabmut_15 == 3 &amp; diabvat_15 == 0 ~ 2,
+  diabvat_15 == 3 &amp; diabmut_15 == 0 ~ 2,
+  (is.na(diabmut_15)  &amp;  diabvat_15 == 3 ~ 2,  (is.na(diabvat_15)  &amp;  diabmut_15 == 3 ~ 2, 
   TRUE ~ NA_integer_
 )</t>
   </si>
   <si>
-    <t>recode(1=1; 2= 0; ELSE= NA)</t>
-  </si>
-  <si>
-    <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
-  </si>
-  <si>
-    <t>UB_fmi_15</t>
-  </si>
-  <si>
-    <t>Age at exposure measure [years]</t>
-  </si>
-  <si>
-    <t>Physical activity from questionnaire data [MET-hr/day]</t>
-  </si>
-  <si>
-    <t>Physical activity from accelerometry data [MET-hr/day]</t>
-  </si>
-  <si>
-    <t>Cumulative lifetime tobacco exposure  [pack years]</t>
-  </si>
-  <si>
-    <t>Amount of daily tobacco smoked [g/day]</t>
-  </si>
-  <si>
-    <t>Age at time of quitting smoking [years]</t>
-  </si>
-  <si>
-    <t>Use of contraceptive pills or injections [years]</t>
-  </si>
-  <si>
-    <t>Number of live births given [Nr. of birth]</t>
-  </si>
-  <si>
-    <t>Age at the first given birth [years]</t>
-  </si>
-  <si>
-    <t>Triglycerides measured from blood samples [mmol/L]</t>
-  </si>
-  <si>
-    <t>Total cholesterol measured from blood samples [mmol/L]</t>
-  </si>
-  <si>
-    <t>LDL cholesterol measured from blood samples [mmol/L]</t>
-  </si>
-  <si>
-    <t>HDL cholesterol measured from blood samples [mmol/L]</t>
-  </si>
-  <si>
-    <t>Screening, skin cancer</t>
-  </si>
-  <si>
-    <t>Screening, mammography</t>
-  </si>
-  <si>
-    <t>Screening cervical, smear test</t>
-  </si>
-  <si>
-    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18.3)</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Age at end of follow-up [years]</t>
-  </si>
-  <si>
-    <t>Body Mass Index at baseline [kg/m²]</t>
-  </si>
-  <si>
-    <t>Body Mass Index at follow-up [kg/m²]</t>
-  </si>
-  <si>
-    <t>Body Mass Index Standard Deviation Score at baseline (children studies)</t>
-  </si>
-  <si>
-    <t>Body Mass Index Standard Deviation Score at follow-up (children studies)</t>
-  </si>
-  <si>
-    <t>Waist circumference at follow-up [cm]</t>
-  </si>
-  <si>
-    <t>Waist circumference at baseline [cm]</t>
-  </si>
-  <si>
-    <t>Hip circumference at baseline [cm]</t>
-  </si>
-  <si>
-    <t>Hip circumference at follow-up [cm]</t>
-  </si>
-  <si>
-    <t>Fat mass index at follow-up  [kg/m²]</t>
-  </si>
-  <si>
-    <t>Fat mass index at baseline  [kg/m²]</t>
-  </si>
-  <si>
-    <t>Body fat precent at follow-up [%]</t>
-  </si>
-  <si>
-    <t>Body fat precent at baseline  [%]</t>
-  </si>
-  <si>
-    <t>Age at anthropometric measurement at follow-up [years]</t>
-  </si>
-  <si>
-    <t>Daily glycaemic load</t>
-  </si>
-  <si>
-    <t>Intake of cakes and fine bakery products [g/d]</t>
-  </si>
-  <si>
-    <t>Intake of fruit and vegetable juices [g/d]</t>
-  </si>
-  <si>
-    <t>Intake of soft drinks [g/d]</t>
-  </si>
-  <si>
-    <t>Total legumes intake [g/d]</t>
-  </si>
-  <si>
-    <t>Total fruit intake [g/d]</t>
-  </si>
-  <si>
-    <t>1 (FFQ)</t>
-  </si>
-  <si>
-    <t>FFQGI_15</t>
-  </si>
-  <si>
-    <t>FFQGL_15</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of CVD [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of angina pectoris [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of myocardial infarction [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of stroke [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of cerebral infarction (ischaemic stroke) [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of haemorrhagic stroke [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of essential hypertension [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of heart failure [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of diabetes mellitus type 2 [years]</t>
-  </si>
-  <si>
-    <t>Age at diagnosis of cancer [years]</t>
-  </si>
-  <si>
-    <t>Age at time of death [years]</t>
+    <t xml:space="preserve">If either parent has diabetes, the family history is marked as 1.
+If both parents do not have diabetes, the family history is marked as 0.                                                                                         If one parent's status is no or unknown (NA or 3), the family history is marked as 2. 
+If one parent's status is missing or unknown (NA or 3), the family history is marked as 2. </t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C109"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1734,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1782,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
@@ -1817,7 +1816,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>33</v>
@@ -1869,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -1904,7 +1903,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1951,7 +1950,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
@@ -1968,7 +1967,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -2000,7 +1999,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -2032,7 +2031,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -2165,7 +2164,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2198,7 +2197,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2230,7 +2229,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -2262,7 +2261,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -2295,7 +2294,7 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -2328,7 +2327,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -2361,7 +2360,7 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -2505,7 +2504,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
@@ -2544,7 +2543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="180">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="135">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2567,10 +2566,10 @@
         <v>27</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>34</v>
@@ -2584,10 +2583,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
         <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2616,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2648,10 +2647,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2680,10 +2679,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2712,10 +2711,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2744,10 +2743,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2776,10 +2775,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2808,10 +2807,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2840,10 +2839,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
         <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2872,10 +2871,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
         <v>108</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2904,10 +2903,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
         <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2936,10 +2935,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
@@ -2968,10 +2967,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3000,10 +2999,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
@@ -3032,10 +3031,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3064,10 +3063,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
@@ -3096,10 +3095,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
         <v>119</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3128,10 +3127,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
@@ -3160,10 +3159,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
         <v>122</v>
-      </c>
-      <c r="C48" t="s">
-        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3192,10 +3191,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
@@ -3224,10 +3223,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3256,10 +3255,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D51" t="s">
         <v>70</v>
@@ -3288,10 +3287,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" t="s">
-        <v>129</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3320,10 +3319,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
@@ -3352,10 +3351,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" t="s">
-        <v>132</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3384,10 +3383,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -3416,10 +3415,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
         <v>134</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3448,10 +3447,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D57" t="s">
         <v>70</v>
@@ -3480,10 +3479,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
         <v>137</v>
-      </c>
-      <c r="C58" t="s">
-        <v>138</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3513,13 +3512,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -3543,19 +3542,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C60" t="s">
-        <v>327</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
@@ -3576,10 +3575,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
         <v>142</v>
-      </c>
-      <c r="C61" t="s">
-        <v>143</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3608,10 +3607,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D62" t="s">
         <v>70</v>
@@ -3640,10 +3639,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
         <v>145</v>
-      </c>
-      <c r="C63" t="s">
-        <v>146</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3672,10 +3671,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
         <v>147</v>
-      </c>
-      <c r="C64" t="s">
-        <v>148</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3704,10 +3703,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
@@ -3736,19 +3735,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C66" t="s">
-        <v>296</v>
-      </c>
-      <c r="D66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -3769,19 +3768,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C67" t="s">
-        <v>297</v>
-      </c>
-      <c r="D67" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -3802,19 +3801,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -3835,10 +3834,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -3854,7 +3853,7 @@
         <v>38</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>38</v>
@@ -3868,10 +3867,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -3899,10 +3898,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
@@ -3930,10 +3929,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -3961,10 +3960,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D73" t="s">
         <v>70</v>
@@ -3992,10 +3991,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
         <v>70</v>
@@ -4023,10 +4022,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
         <v>70</v>
@@ -4035,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4056,10 +4055,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
         <v>70</v>
@@ -4087,19 +4086,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="C77" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -4108,7 +4107,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
@@ -4122,19 +4121,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C78" t="s">
-        <v>308</v>
-      </c>
-      <c r="D78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -4155,19 +4154,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
         <v>170</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D79" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -4188,25 +4187,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
         <v>173</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D80" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
@@ -4221,25 +4220,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
         <v>177</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
@@ -4254,25 +4253,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
         <v>181</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D82" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
@@ -4287,25 +4286,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
         <v>185</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D83" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
@@ -4320,25 +4319,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
         <v>189</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D84" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
@@ -4353,25 +4352,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" t="s">
         <v>193</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D85" t="s">
-        <v>70</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
@@ -4386,25 +4385,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" t="s">
         <v>197</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D86" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
@@ -4419,25 +4418,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" t="s">
         <v>201</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D87" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
@@ -4452,10 +4451,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
         <v>205</v>
-      </c>
-      <c r="C88" t="s">
-        <v>206</v>
       </c>
       <c r="D88" t="s">
         <v>70</v>
@@ -4483,10 +4482,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" t="s">
         <v>207</v>
-      </c>
-      <c r="C89" t="s">
-        <v>208</v>
       </c>
       <c r="D89" t="s">
         <v>70</v>
@@ -4514,10 +4513,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" t="s">
         <v>209</v>
-      </c>
-      <c r="C90" t="s">
-        <v>210</v>
       </c>
       <c r="D90" t="s">
         <v>70</v>
@@ -4545,25 +4544,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
         <v>211</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D91" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -4578,25 +4577,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" t="s">
         <v>215</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D92" t="s">
-        <v>70</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
@@ -4611,11 +4610,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" t="s">
         <v>219</v>
       </c>
-      <c r="C93" t="s">
-        <v>220</v>
-      </c>
       <c r="D93" t="s">
         <v>70</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4632,7 +4631,7 @@
         <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -4646,10 +4645,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D94" t="s">
         <v>70</v>
@@ -4658,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4667,7 +4666,7 @@
         <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -4681,25 +4680,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" t="s">
         <v>223</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D95" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
@@ -4714,25 +4713,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
         <v>227</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D96" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -4747,25 +4746,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
         <v>231</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D97" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
@@ -4780,25 +4779,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" t="s">
+        <v>308</v>
+      </c>
+      <c r="D98" t="s">
+        <v>70</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C98" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" t="s">
-        <v>70</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
@@ -4813,25 +4812,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" t="s">
+        <v>70</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C99" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" t="s">
-        <v>70</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
@@ -4846,25 +4845,25 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" t="s">
+        <v>310</v>
+      </c>
+      <c r="D100" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C100" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
@@ -4879,10 +4878,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" t="s">
         <v>244</v>
-      </c>
-      <c r="C101" t="s">
-        <v>245</v>
       </c>
       <c r="D101" t="s">
         <v>70</v>
@@ -4910,25 +4909,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" t="s">
         <v>246</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D102" t="s">
-        <v>70</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
@@ -4943,10 +4942,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C103" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D103" t="s">
         <v>70</v>
@@ -4974,10 +4973,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D104" t="s">
         <v>70</v>
@@ -4986,13 +4985,13 @@
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
@@ -5007,11 +5006,11 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" t="s">
         <v>252</v>
       </c>
-      <c r="C105" t="s">
-        <v>253</v>
-      </c>
       <c r="D105" t="s">
         <v>70</v>
       </c>
@@ -5019,13 +5018,13 @@
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
@@ -5040,25 +5039,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" t="s">
         <v>254</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D106" t="s">
-        <v>70</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
@@ -5073,10 +5072,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" t="s">
         <v>258</v>
-      </c>
-      <c r="C107" t="s">
-        <v>259</v>
       </c>
       <c r="D107" t="s">
         <v>70</v>
@@ -5104,19 +5103,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C108" t="s">
         <v>260</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="D108" t="s">
-        <v>70</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5137,10 +5136,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" t="s">
         <v>263</v>
-      </c>
-      <c r="C109" t="s">
-        <v>264</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5149,16 +5148,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G109" s="26" t="s">
         <v>265</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>266</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>16</v>
@@ -5241,6 +5240,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5481,28 +5501,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5519,23 +5537,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32795D60-EBC8-4A64-8AA9-D29B16C6F5A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7BB45-F467-4F42-BAFB-17F806ED6361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5240,27 +5240,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5501,26 +5480,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5537,4 +5518,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7BB45-F467-4F42-BAFB-17F806ED6361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597F160-F8D0-4600-B5E0-B280F806E304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="328">
   <si>
     <t>Index</t>
   </si>
@@ -717,19 +717,10 @@
     <t>SODIUM</t>
   </si>
   <si>
-    <t>Sodium intake [g/d]</t>
-  </si>
-  <si>
     <t>FFQMNA_15</t>
   </si>
   <si>
-    <t>FFQMNA_15/1000</t>
-  </si>
-  <si>
     <t>SOD_POT_RATIO</t>
-  </si>
-  <si>
-    <t>Sodium to potassium intake ratio [g/d]</t>
   </si>
   <si>
     <t>FFQMK_15;
@@ -1092,19 +1083,25 @@
     <t>Age at time of death [years]</t>
   </si>
   <si>
+    <t xml:space="preserve">If either parent has diabetes, the family history is marked as 1.
+If both parents do not have diabetes, the family history is marked as 0.                                                                                         If one parent's status is no or unknown (NA or 3), the family history is marked as 2. 
+If one parent's status is missing or unknown (NA or 3), the family history is marked as 2. </t>
+  </si>
+  <si>
+    <t>Sodium intake [mg/d]</t>
+  </si>
+  <si>
+    <t>Sodium to potassium intake ratio</t>
+  </si>
+  <si>
     <t>case_when (
   diabmut_15 == 1 | diabvat_15 == 1 ~ 1L,
   diabmut_15 == 0 &amp; diabvat_15 == 0 ~ 0L,
-   diabmut_15 == 3 &amp; diabvat_15 == 0 ~ 2,
-  diabvat_15 == 3 &amp; diabmut_15 == 0 ~ 2,
-  (is.na(diabmut_15)  &amp;  diabvat_15 == 3 ~ 2,  (is.na(diabvat_15)  &amp;  diabmut_15 == 3 ~ 2, 
+   diabmut_15 == 3 &amp; diabvat_15 == 0 ~ 2L,
+  diabvat_15 == 3 &amp; diabmut_15 == 0 ~ 2L,
+  (is.na(diabmut_15)  &amp;  diabvat_15 == 3 ~ 2L,  (is.na(diabvat_15)  &amp;  diabmut_15 == 3 ~ 2L, 
   TRUE ~ NA_integer_
 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If either parent has diabetes, the family history is marked as 1.
-If both parents do not have diabetes, the family history is marked as 0.                                                                                         If one parent's status is no or unknown (NA or 3), the family history is marked as 2. 
-If one parent's status is missing or unknown (NA or 3), the family history is marked as 2. </t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1733,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1781,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
@@ -1816,7 +1813,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>33</v>
@@ -1868,7 +1865,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -1903,7 +1900,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1950,7 +1947,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
@@ -1967,7 +1964,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -1999,7 +1996,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -2031,7 +2028,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -2164,7 +2161,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2197,7 +2194,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2229,7 +2226,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -2261,7 +2258,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -2294,7 +2291,7 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -2327,7 +2324,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -2360,7 +2357,7 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -2504,7 +2501,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
@@ -2569,7 +2566,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>34</v>
@@ -2746,7 +2743,7 @@
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2778,7 +2775,7 @@
         <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2810,7 +2807,7 @@
         <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2938,7 +2935,7 @@
         <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
@@ -3002,7 +2999,7 @@
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
@@ -3066,7 +3063,7 @@
         <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
@@ -3130,7 +3127,7 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
@@ -3194,7 +3191,7 @@
         <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
@@ -3258,7 +3255,7 @@
         <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D51" t="s">
         <v>70</v>
@@ -3322,7 +3319,7 @@
         <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
@@ -3386,7 +3383,7 @@
         <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -3450,7 +3447,7 @@
         <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D57" t="s">
         <v>70</v>
@@ -3515,10 +3512,10 @@
         <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -3545,7 +3542,7 @@
         <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D60" t="s">
         <v>70</v>
@@ -3610,7 +3607,7 @@
         <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D62" t="s">
         <v>70</v>
@@ -3706,7 +3703,7 @@
         <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
@@ -3738,7 +3735,7 @@
         <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D66" t="s">
         <v>70</v>
@@ -3771,7 +3768,7 @@
         <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -3804,7 +3801,7 @@
         <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -3837,7 +3834,7 @@
         <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -3870,7 +3867,7 @@
         <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -3901,7 +3898,7 @@
         <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
@@ -3932,7 +3929,7 @@
         <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -3963,7 +3960,7 @@
         <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D73" t="s">
         <v>70</v>
@@ -3994,7 +3991,7 @@
         <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D74" t="s">
         <v>70</v>
@@ -4025,7 +4022,7 @@
         <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D75" t="s">
         <v>70</v>
@@ -4034,7 +4031,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4058,7 +4055,7 @@
         <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D76" t="s">
         <v>70</v>
@@ -4089,7 +4086,7 @@
         <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
         <v>70</v>
@@ -4124,7 +4121,7 @@
         <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D78" t="s">
         <v>70</v>
@@ -4622,7 +4619,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4648,7 +4645,7 @@
         <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D94" t="s">
         <v>70</v>
@@ -4657,7 +4654,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4683,22 +4680,22 @@
         <v>222</v>
       </c>
       <c r="C95" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D95" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
@@ -4713,10 +4710,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s">
         <v>70</v>
@@ -4725,13 +4722,13 @@
         <v>14</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -4746,10 +4743,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D97" t="s">
         <v>70</v>
@@ -4758,13 +4755,13 @@
         <v>14</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
@@ -4779,10 +4776,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
         <v>70</v>
@@ -4791,13 +4788,13 @@
         <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
@@ -4812,10 +4809,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D99" t="s">
         <v>70</v>
@@ -4824,13 +4821,13 @@
         <v>14</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
@@ -4845,10 +4842,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D100" t="s">
         <v>70</v>
@@ -4857,13 +4854,13 @@
         <v>14</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
@@ -4878,10 +4875,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
         <v>70</v>
@@ -4909,10 +4906,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D102" t="s">
         <v>70</v>
@@ -4921,13 +4918,13 @@
         <v>14</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
@@ -4942,10 +4939,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
         <v>70</v>
@@ -4973,10 +4970,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D104" t="s">
         <v>70</v>
@@ -4985,13 +4982,13 @@
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
@@ -5006,10 +5003,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D105" t="s">
         <v>70</v>
@@ -5018,13 +5015,13 @@
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
@@ -5039,10 +5036,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D106" t="s">
         <v>70</v>
@@ -5051,13 +5048,13 @@
         <v>14</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
@@ -5072,10 +5069,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D107" t="s">
         <v>70</v>
@@ -5103,10 +5100,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D108" t="s">
         <v>70</v>
@@ -5115,7 +5112,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5136,10 +5133,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5148,16 +5145,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>16</v>
@@ -5240,6 +5237,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5480,15 +5486,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5502,6 +5499,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5520,14 +5525,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>

--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597F160-F8D0-4600-B5E0-B280F806E304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749071AA-6074-4F62-A214-996C4D63BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8280" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1083,11 +1083,6 @@
     <t>Age at time of death [years]</t>
   </si>
   <si>
-    <t xml:space="preserve">If either parent has diabetes, the family history is marked as 1.
-If both parents do not have diabetes, the family history is marked as 0.                                                                                         If one parent's status is no or unknown (NA or 3), the family history is marked as 2. 
-If one parent's status is missing or unknown (NA or 3), the family history is marked as 2. </t>
-  </si>
-  <si>
     <t>Sodium intake [mg/d]</t>
   </si>
   <si>
@@ -1095,13 +1090,17 @@
   </si>
   <si>
     <t>case_when (
-  diabmut_15 == 1 | diabvat_15 == 1 ~ 1L,
-  diabmut_15 == 0 &amp; diabvat_15 == 0 ~ 0L,
-   diabmut_15 == 3 &amp; diabvat_15 == 0 ~ 2L,
-  diabvat_15 == 3 &amp; diabmut_15 == 0 ~ 2L,
-  (is.na(diabmut_15)  &amp;  diabvat_15 == 3 ~ 2L,  (is.na(diabvat_15)  &amp;  diabmut_15 == 3 ~ 2L, 
-  TRUE ~ NA_integer_
+      diabmut_15 == 1 | diabvat_15 == 1 ~ 1L,
+      diabmut_15 == 3 | diabvat_15 == 3 ~ 2L,
+      diabmut_15 == 2 &amp; diabvat_15 == 2 ~ 0L,
+      TRUE ~ NA_integer_
 )</t>
+  </si>
+  <si>
+    <t>If either parent has diabetes(1), the family history is marked as yes(1).
+If one parent's status is unknown (3), the family history is marked as don't know (2). 
+If both parents do not have diabetes (2), the family history is marked as no (0).
+Everything else (e.g. 2+ NA, NA+NA) is marked as NA</t>
   </si>
 </sst>
 </file>
@@ -1304,9 +1303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1344,7 +1343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1450,7 +1449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1592,7 +1591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1602,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2540,7 +2539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="135">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="105">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2563,10 +2562,10 @@
         <v>27</v>
       </c>
       <c r="H29" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>34</v>
@@ -4680,7 +4679,7 @@
         <v>222</v>
       </c>
       <c r="C95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s">
         <v>70</v>
@@ -4713,7 +4712,7 @@
         <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
         <v>70</v>
@@ -5237,12 +5236,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5487,21 +5489,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5526,12 +5528,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749071AA-6074-4F62-A214-996C4D63BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A46C7C-B15D-4E93-BE5E-5A76A8DDA32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22260" windowHeight="12000" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,14 +112,6 @@
     <t>case_when</t>
   </si>
   <si>
-    <t>"None" (0): Both parents have 1 (no certificate).
-"Primary School Completed" (1): Either parent has 2.
-"Technical/Professional School" (2): Either parent has 3.
-"Secondary School" (3): Either parent has 4.
-"Longer Education" (4): Either parent has 5 or 6.
-"Not Specified" (5): Either parent has 7 (other degree).</t>
-  </si>
-  <si>
     <t>compatible</t>
   </si>
   <si>
@@ -894,17 +886,6 @@
   <si>
     <t>FFQRIND_15 +
 FFQSCHW_15</t>
-  </si>
-  <si>
-    <t>case_when(
-      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
-      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
-      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 2L, 
-      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 3L, 
-      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
-      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
-      TRUE ~ NA_integer_
-    )</t>
   </si>
   <si>
     <t>case_when(
@@ -1089,18 +1070,37 @@
     <t>Sodium to potassium intake ratio</t>
   </si>
   <si>
+    <t>case_when(
+      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
+      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
+      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 3L, 
+      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 2L, 
+      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
+      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
+      TRUE ~ NA_integer_
+    )</t>
+  </si>
+  <si>
+    <t>"None" (0): Both parents have 1 (no certificate).
+"Primary School Completed" (1): Either parent has 2.
+"Technical/Professional School" (2): Either parent has 4.
+"Secondary School" (3): Either parent has 3.
+"Longer Education" (4): Either parent has 5 or 6.
+"Not Specified" (5): Either parent has 7 (other degree).</t>
+  </si>
+  <si>
     <t>case_when (
       diabmut_15 == 1 | diabvat_15 == 1 ~ 1L,
+      diabmut_15 == 2 | diabvat_15 == 2 ~ 0L,
       diabmut_15 == 3 | diabvat_15 == 3 ~ 2L,
-      diabmut_15 == 2 &amp; diabvat_15 == 2 ~ 0L,
       TRUE ~ NA_integer_
 )</t>
   </si>
   <si>
-    <t>If either parent has diabetes(1), the family history is marked as yes(1).
-If one parent's status is unknown (3), the family history is marked as don't know (2). 
-If both parents do not have diabetes (2), the family history is marked as no (0).
-Everything else (e.g. 2+ NA, NA+NA) is marked as NA</t>
+    <t>If either parent has diabetes (coded as 1), the family history is marked as Yes (1).
+If both parents do not have diabetes (coded as 2), and condition 1 does not apply, the family history is marked as No (0).
+If either parent's diabetes status is unknown (coded as 3), and conditions 1 and 2 do not apply, the family history is marked as Don't Know (2).
+All other cases are marked as NA.</t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1611,7 +1611,7 @@
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="46" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" customWidth="1"/>
     <col min="9" max="9" width="54.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
@@ -1729,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1751,10 +1751,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="210">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="135">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1777,27 +1777,27 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="225">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="150">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1806,22 +1806,22 @@
         <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1829,10 +1829,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1841,54 +1841,54 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="105">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="I8" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1">
@@ -1896,31 +1896,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1">
@@ -1928,10 +1928,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1940,19 +1940,19 @@
         <v>14</v>
       </c>
       <c r="F10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1960,31 +1960,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1992,31 +1992,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2024,31 +2024,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2056,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2068,22 +2068,22 @@
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" t="s">
         <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1">
@@ -2091,10 +2091,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2104,19 +2104,19 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1">
@@ -2124,10 +2124,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2137,19 +2137,19 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
@@ -2157,10 +2157,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2170,19 +2170,19 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
@@ -2190,10 +2190,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2202,19 +2202,19 @@
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2222,31 +2222,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2254,19 +2254,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -2279,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2287,19 +2287,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
@@ -2312,7 +2312,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2320,19 +2320,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -2345,7 +2345,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2353,19 +2353,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -2378,7 +2378,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2386,10 +2386,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2398,19 +2398,19 @@
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2418,10 +2418,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2430,19 +2430,19 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2450,10 +2450,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2462,19 +2462,19 @@
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
@@ -2482,10 +2482,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
         <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2494,19 +2494,19 @@
         <v>14</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
@@ -2514,10 +2514,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
         <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2527,27 +2527,27 @@
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="135">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2556,7 +2556,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>27</v>
@@ -2568,10 +2568,10 @@
         <v>327</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2579,10 +2579,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2591,19 +2591,19 @@
         <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2611,10 +2611,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2623,19 +2623,19 @@
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2643,10 +2643,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
         <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2655,19 +2655,19 @@
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2675,10 +2675,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2687,19 +2687,19 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2707,10 +2707,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2719,19 +2719,19 @@
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2739,10 +2739,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2751,19 +2751,19 @@
         <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2771,10 +2771,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2783,19 +2783,19 @@
         <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2803,10 +2803,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2815,19 +2815,19 @@
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2835,10 +2835,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
         <v>105</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2847,19 +2847,19 @@
         <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2867,10 +2867,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
         <v>107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2879,19 +2879,19 @@
         <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2899,10 +2899,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2911,19 +2911,19 @@
         <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2931,31 +2931,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2963,10 +2963,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
         <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2975,19 +2975,19 @@
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2995,31 +2995,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3027,10 +3027,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
         <v>115</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3039,19 +3039,19 @@
         <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3059,31 +3059,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3091,10 +3091,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3103,19 +3103,19 @@
         <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3123,31 +3123,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3155,10 +3155,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>122</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3167,19 +3167,19 @@
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3187,31 +3187,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3219,10 +3219,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
         <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>125</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3231,19 +3231,19 @@
         <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3251,31 +3251,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3283,10 +3283,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
         <v>127</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3295,19 +3295,19 @@
         <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3315,31 +3315,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3347,10 +3347,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
         <v>130</v>
-      </c>
-      <c r="C54" t="s">
-        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3359,19 +3359,19 @@
         <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3379,31 +3379,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3411,10 +3411,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
         <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>134</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3423,19 +3423,19 @@
         <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3443,31 +3443,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1">
@@ -3475,10 +3475,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
         <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3488,19 +3488,19 @@
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3508,29 +3508,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3538,19 +3538,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C60" t="s">
-        <v>322</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
@@ -3571,10 +3571,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" t="s">
         <v>141</v>
-      </c>
-      <c r="C61" t="s">
-        <v>142</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3583,19 +3583,19 @@
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3603,31 +3603,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3635,10 +3635,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
         <v>144</v>
-      </c>
-      <c r="C63" t="s">
-        <v>145</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3647,19 +3647,19 @@
         <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3667,10 +3667,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
         <v>146</v>
-      </c>
-      <c r="C64" t="s">
-        <v>147</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3679,19 +3679,19 @@
         <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3699,31 +3699,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3731,19 +3731,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>289</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C66" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -3764,19 +3764,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C67" t="s">
-        <v>292</v>
-      </c>
-      <c r="D67" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -3797,19 +3797,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C68" t="s">
-        <v>293</v>
-      </c>
-      <c r="D68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -3822,7 +3822,7 @@
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="6" customFormat="1">
@@ -3830,32 +3830,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3863,30 +3863,30 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3894,30 +3894,30 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3925,30 +3925,30 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3956,30 +3956,30 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1">
@@ -3987,30 +3987,30 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1">
@@ -4018,19 +4018,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4051,30 +4051,30 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1">
@@ -4082,19 +4082,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>302</v>
-      </c>
-      <c r="D77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -4103,13 +4103,13 @@
         <v>21</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4117,19 +4117,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>303</v>
-      </c>
-      <c r="D78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -4150,19 +4150,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
         <v>169</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D79" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -4183,25 +4183,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
         <v>172</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D80" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
@@ -4216,25 +4216,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" t="s">
         <v>176</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
@@ -4249,25 +4249,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
         <v>180</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D82" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
@@ -4282,25 +4282,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" t="s">
         <v>184</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D83" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
@@ -4315,25 +4315,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
         <v>188</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D84" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
@@ -4348,25 +4348,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
         <v>192</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D85" t="s">
-        <v>70</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
@@ -4381,25 +4381,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" t="s">
         <v>196</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D86" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
@@ -4414,25 +4414,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" t="s">
         <v>200</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D87" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
@@ -4447,30 +4447,30 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" t="s">
         <v>204</v>
       </c>
-      <c r="C88" t="s">
-        <v>205</v>
-      </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4478,30 +4478,30 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s">
         <v>206</v>
       </c>
-      <c r="C89" t="s">
-        <v>207</v>
-      </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4509,30 +4509,30 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s">
         <v>208</v>
       </c>
-      <c r="C90" t="s">
-        <v>209</v>
-      </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4540,25 +4540,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" t="s">
         <v>210</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D91" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -4573,25 +4573,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" t="s">
         <v>214</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D92" t="s">
-        <v>70</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
@@ -4606,19 +4606,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" t="s">
         <v>218</v>
       </c>
-      <c r="C93" t="s">
-        <v>219</v>
-      </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4627,7 +4627,7 @@
         <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -4641,19 +4641,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C94" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4662,7 +4662,7 @@
         <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -4676,19 +4676,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
+        <v>322</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C95" t="s">
-        <v>324</v>
-      </c>
-      <c r="D95" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -4709,25 +4709,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C96" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C96" t="s">
-        <v>325</v>
-      </c>
-      <c r="D96" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -4742,32 +4742,32 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
         <v>227</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D97" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="75">
@@ -4775,32 +4775,32 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C98" t="s">
-        <v>305</v>
-      </c>
-      <c r="D98" t="s">
-        <v>70</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="G98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="60">
@@ -4808,32 +4808,32 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C99" t="s">
-        <v>306</v>
-      </c>
-      <c r="D99" t="s">
-        <v>70</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="30">
@@ -4841,32 +4841,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" t="s">
+        <v>305</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C100" t="s">
-        <v>307</v>
-      </c>
-      <c r="D100" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="G100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4874,30 +4874,30 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" t="s">
         <v>240</v>
       </c>
-      <c r="C101" t="s">
-        <v>241</v>
-      </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="75">
@@ -4905,32 +4905,32 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" t="s">
         <v>242</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D102" t="s">
-        <v>70</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="G102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4938,30 +4938,30 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="60">
@@ -4969,32 +4969,32 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C104" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30">
@@ -5002,32 +5002,32 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" t="s">
         <v>248</v>
       </c>
-      <c r="C105" t="s">
-        <v>249</v>
-      </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="60">
@@ -5035,32 +5035,32 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
         <v>250</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D106" t="s">
-        <v>70</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="G106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5068,30 +5068,30 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" t="s">
         <v>254</v>
       </c>
-      <c r="C107" t="s">
-        <v>255</v>
-      </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5099,19 +5099,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" t="s">
         <v>256</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D108" t="s">
-        <v>70</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5132,10 +5132,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" t="s">
         <v>259</v>
-      </c>
-      <c r="C109" t="s">
-        <v>260</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5144,16 +5144,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G109" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>262</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>16</v>
@@ -5236,6 +5236,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5247,7 +5256,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5488,16 +5497,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5508,7 +5516,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5525,12 +5533,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A46C7C-B15D-4E93-BE5E-5A76A8DDA32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5F3C3-E743-43B4-818A-740934C8669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22260" windowHeight="12000" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1070,25 +1070,6 @@
     <t>Sodium to potassium intake ratio</t>
   </si>
   <si>
-    <t>case_when(
-      MUTBILD_0 == 1 &amp; VATBILD_0 == 1 ~ 0L,
-      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,  
-      MUTBILD_0 %in% c(3) | VATBILD_0 %in% c(3) ~ 3L, 
-      MUTBILD_0 %in% c(4) | VATBILD_0 %in% c(4) ~ 2L, 
-      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L, 
-      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,  
-      TRUE ~ NA_integer_
-    )</t>
-  </si>
-  <si>
-    <t>"None" (0): Both parents have 1 (no certificate).
-"Primary School Completed" (1): Either parent has 2.
-"Technical/Professional School" (2): Either parent has 4.
-"Secondary School" (3): Either parent has 3.
-"Longer Education" (4): Either parent has 5 or 6.
-"Not Specified" (5): Either parent has 7 (other degree).</t>
-  </si>
-  <si>
     <t>case_when (
       diabmut_15 == 1 | diabvat_15 == 1 ~ 1L,
       diabmut_15 == 2 | diabvat_15 == 2 ~ 0L,
@@ -1101,6 +1082,23 @@
 If both parents do not have diabetes (coded as 2), and condition 1 does not apply, the family history is marked as No (0).
 If either parent's diabetes status is unknown (coded as 3), and conditions 1 and 2 do not apply, the family history is marked as Don't Know (2).
 All other cases are marked as NA.</t>
+  </si>
+  <si>
+    <t>case_when(
+      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L,
+      MUTBILD_0 %in% c(3,4) | VATBILD_0 %in% c(3,4) ~ 3L,
+      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,
+      MUTBILD_0 == 1 | VATBILD_0 == 1 ~ 0L,
+      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,
+      TRUE ~ NA_integer_
+    )</t>
+  </si>
+  <si>
+    <t>"Longer Education" (4): Either parent has 5 or 6.
+"Secondary School" (3): Either parent has 3 or 4.
+"Primary School Completed" (1): Either parent has 2.
+"None" (0): Either parent has 1 (no certificate).
+"Not Specified" (5): Either parent has 7 (other degree).</t>
   </si>
 </sst>
 </file>
@@ -1162,6 +1160,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1174,12 +1173,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1601,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB6D67-1D35-4768-BA1C-E9D0A324CEEE}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1754,7 +1755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="135">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1777,10 +1778,10 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
@@ -2562,10 +2563,10 @@
         <v>27</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>33</v>
@@ -5236,27 +5237,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5497,10 +5477,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5517,20 +5529,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B924E26-FD9D-4578-A9DC-389C0AAF7136}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_LISA_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5F3C3-E743-43B4-818A-740934C8669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F54DC-3E83-4610-954D-8484B38FF3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{786B4876-F99A-4BB7-BD43-A6CEAD3EC1AA}"/>
   </bookViews>
@@ -105,10 +105,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>MUTBILD_0;
-VATBILD_0;</t>
-  </si>
-  <si>
     <t>case_when</t>
   </si>
   <si>
@@ -1084,21 +1080,24 @@
 All other cases are marked as NA.</t>
   </si>
   <si>
+    <t>MUTBILD_0;VATBILD_0; MUTBERU_0; VATBERU_0</t>
+  </si>
+  <si>
     <t>case_when(
-      MUTBILD_0 %in% c(5, 6) | VATBILD_0 %in% c(5, 6) ~ 4L,
-      MUTBILD_0 %in% c(3,4) | VATBILD_0 %in% c(3,4) ~ 3L,
-      MUTBILD_0 %in% c(2) | VATBILD_0 %in% c(2) ~ 1L,
-      MUTBILD_0 == 1 | VATBILD_0 == 1 ~ 0L,
-      MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 5L,
-      TRUE ~ NA_integer_
-    )</t>
-  </si>
-  <si>
-    <t>"Longer Education" (4): Either parent has 5 or 6.
-"Secondary School" (3): Either parent has 3 or 4.
-"Primary School Completed" (1): Either parent has 2.
-"None" (0): Either parent has 1 (no certificate).
-"Not Specified" (5): Either parent has 7 (other degree).</t>
+  MUTBERU_0 %in% c(7) | VATBERU_0 %in% c(7) ~ 7L,
+  MUTBERU_0 %in% c(5,6) | VATBERU_0 %in% c(5,6) ~ 6L,
+  MUTBERU_0 %in% c(3,4) |VATBERU_0 %in% c(3,4) ~ 4L,
+  MUTBERU_0 %in% c(8) |VATBERU_0 %in% c(8) ~ 9L,
+  MUTBILD_0 %in% c(5,6) | VATBILD_0 %in% c(5,6) ~ 3L,
+  MUTBILD_0 %in% c(2,3,4) | VATBILD_0 %in% c(2,3,4) ~ 2L,
+  MUTBILD_0 %in% c(1) &amp; VATBILD_0 %in% c(1) ~ 0L,
+  is.na(MUTBILD_0) &amp; VATBILD_0 %in% c(1) ~ 0L,
+  MUTBILD_0 %in% c(1) &amp; is.na(VATBILD_0) ~ 0L,
+  MUTBILD_0 %in% c(7) | VATBILD_0 %in% c(7) ~ 9L,
+  TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>Education according to the ISCED 2011 classification</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1286,9 +1285,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1304,9 +1304,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1344,7 +1344,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1450,7 +1450,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1592,7 +1592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1603,10 +1603,10 @@
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I5"/>
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
@@ -1730,10 +1730,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1752,10 +1752,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="120">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="195">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1771,11 +1771,11 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>326</v>
@@ -1784,10 +1784,10 @@
         <v>327</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="150">
@@ -1795,10 +1795,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1807,22 +1807,22 @@
         <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1830,10 +1830,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1842,19 +1842,19 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="90">
@@ -1862,34 +1862,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="I8" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1">
@@ -1897,31 +1897,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1">
@@ -1929,10 +1929,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1941,19 +1941,19 @@
         <v>14</v>
       </c>
       <c r="F10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1961,31 +1961,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1993,31 +1993,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2025,31 +2025,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2057,10 +2057,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2069,22 +2069,22 @@
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" t="s">
         <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1">
@@ -2092,10 +2092,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2105,19 +2105,19 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1">
@@ -2125,10 +2125,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2138,19 +2138,19 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
@@ -2158,10 +2158,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2171,19 +2171,19 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
@@ -2191,10 +2191,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2203,19 +2203,19 @@
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2223,31 +2223,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -2280,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2288,19 +2288,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
@@ -2313,7 +2313,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2321,19 +2321,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -2346,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2354,19 +2354,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -2379,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2387,10 +2387,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2399,19 +2399,19 @@
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2419,10 +2419,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2431,19 +2431,19 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2451,10 +2451,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
         <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2463,19 +2463,19 @@
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
@@ -2483,10 +2483,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2495,19 +2495,19 @@
         <v>14</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
@@ -2515,10 +2515,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2528,16 +2528,16 @@
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="135">
@@ -2545,10 +2545,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2557,22 +2557,22 @@
         <v>14</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>325</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2580,10 +2580,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2592,19 +2592,19 @@
         <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2612,10 +2612,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2624,19 +2624,19 @@
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2644,10 +2644,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2656,19 +2656,19 @@
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2676,10 +2676,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2688,19 +2688,19 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2708,10 +2708,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2720,19 +2720,19 @@
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2740,10 +2740,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2752,19 +2752,19 @@
         <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2772,10 +2772,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2784,19 +2784,19 @@
         <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2804,10 +2804,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2816,19 +2816,19 @@
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2836,10 +2836,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
         <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2848,19 +2848,19 @@
         <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2868,10 +2868,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
         <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2880,19 +2880,19 @@
         <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2900,10 +2900,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
         <v>108</v>
-      </c>
-      <c r="C40" t="s">
-        <v>109</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2912,19 +2912,19 @@
         <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2932,31 +2932,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2964,10 +2964,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
         <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2976,19 +2976,19 @@
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2996,31 +2996,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3028,10 +3028,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
         <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3040,19 +3040,19 @@
         <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3060,31 +3060,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3092,10 +3092,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>118</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3104,19 +3104,19 @@
         <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3124,31 +3124,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3156,10 +3156,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
         <v>120</v>
-      </c>
-      <c r="C48" t="s">
-        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3168,19 +3168,19 @@
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3188,31 +3188,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3220,10 +3220,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
         <v>123</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3232,19 +3232,19 @@
         <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3252,31 +3252,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3284,10 +3284,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>127</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3296,19 +3296,19 @@
         <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3316,31 +3316,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3348,10 +3348,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
         <v>129</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3360,19 +3360,19 @@
         <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3380,31 +3380,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3412,10 +3412,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" t="s">
-        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3424,19 +3424,19 @@
         <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3444,31 +3444,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1">
@@ -3476,10 +3476,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
         <v>135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>136</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3489,19 +3489,19 @@
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3509,29 +3509,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" t="s">
         <v>286</v>
       </c>
-      <c r="D59" t="s">
-        <v>287</v>
-      </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3539,19 +3539,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>319</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
@@ -3572,10 +3572,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
         <v>140</v>
-      </c>
-      <c r="C61" t="s">
-        <v>141</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3584,19 +3584,19 @@
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3604,31 +3604,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3636,10 +3636,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
         <v>143</v>
-      </c>
-      <c r="C63" t="s">
-        <v>144</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3648,19 +3648,19 @@
         <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3668,10 +3668,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
         <v>145</v>
-      </c>
-      <c r="C64" t="s">
-        <v>146</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3680,19 +3680,19 @@
         <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3700,31 +3700,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3732,19 +3732,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C66" t="s">
-        <v>289</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -3765,19 +3765,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C67" t="s">
-        <v>290</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -3798,19 +3798,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C68" t="s">
-        <v>291</v>
-      </c>
-      <c r="D68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -3823,7 +3823,7 @@
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="6" customFormat="1">
@@ -3831,32 +3831,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3864,30 +3864,30 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3895,30 +3895,30 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3926,30 +3926,30 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3957,30 +3957,30 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1">
@@ -3988,30 +3988,30 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1">
@@ -4019,19 +4019,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -4052,30 +4052,30 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1">
@@ -4083,19 +4083,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="C77" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -4104,13 +4104,13 @@
         <v>21</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4118,19 +4118,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C78" t="s">
-        <v>301</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -4151,19 +4151,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
         <v>168</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D79" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -4184,25 +4184,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
         <v>171</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
@@ -4217,25 +4217,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" t="s">
         <v>175</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D81" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
@@ -4250,25 +4250,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
         <v>179</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
@@ -4283,25 +4283,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
         <v>183</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D83" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
@@ -4316,25 +4316,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
         <v>187</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D84" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
@@ -4349,25 +4349,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
@@ -4382,25 +4382,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" t="s">
         <v>195</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D86" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
@@ -4415,25 +4415,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
         <v>199</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
@@ -4448,30 +4448,30 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" t="s">
         <v>203</v>
       </c>
-      <c r="C88" t="s">
-        <v>204</v>
-      </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4479,30 +4479,30 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" t="s">
         <v>205</v>
       </c>
-      <c r="C89" t="s">
-        <v>206</v>
-      </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4510,30 +4510,30 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" t="s">
         <v>207</v>
       </c>
-      <c r="C90" t="s">
-        <v>208</v>
-      </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4541,25 +4541,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" t="s">
         <v>209</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -4574,25 +4574,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" t="s">
         <v>213</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D92" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
@@ -4607,19 +4607,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" t="s">
         <v>217</v>
       </c>
-      <c r="C93" t="s">
-        <v>218</v>
-      </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -4628,7 +4628,7 @@
         <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>16</v>
@@ -4642,19 +4642,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4663,7 +4663,7 @@
         <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>16</v>
@@ -4677,19 +4677,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C95" t="s">
-        <v>322</v>
-      </c>
-      <c r="D95" t="s">
-        <v>69</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -4710,25 +4710,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C96" t="s">
-        <v>323</v>
-      </c>
-      <c r="D96" t="s">
-        <v>69</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -4743,32 +4743,32 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" t="s">
         <v>226</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D97" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="75">
@@ -4776,32 +4776,32 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" t="s">
+        <v>302</v>
+      </c>
+      <c r="D98" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C98" t="s">
-        <v>303</v>
-      </c>
-      <c r="D98" t="s">
-        <v>69</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="G98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="60">
@@ -4809,32 +4809,32 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C99" t="s">
-        <v>304</v>
-      </c>
-      <c r="D99" t="s">
-        <v>69</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="30">
@@ -4842,32 +4842,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C100" t="s">
-        <v>305</v>
-      </c>
-      <c r="D100" t="s">
-        <v>69</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="G100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4875,30 +4875,30 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" t="s">
         <v>239</v>
       </c>
-      <c r="C101" t="s">
-        <v>240</v>
-      </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="75">
@@ -4906,32 +4906,32 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C102" t="s">
         <v>241</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D102" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="G102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4939,30 +4939,30 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="60">
@@ -4970,32 +4970,32 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30">
@@ -5003,32 +5003,32 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" t="s">
         <v>247</v>
       </c>
-      <c r="C105" t="s">
-        <v>248</v>
-      </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="60">
@@ -5036,32 +5036,32 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" t="s">
         <v>249</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D106" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="G106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5069,30 +5069,30 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" t="s">
         <v>253</v>
       </c>
-      <c r="C107" t="s">
-        <v>254</v>
-      </c>
       <c r="D107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5100,19 +5100,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" t="s">
         <v>255</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D108" t="s">
-        <v>69</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -5133,10 +5133,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" t="s">
         <v>258</v>
-      </c>
-      <c r="C109" t="s">
-        <v>259</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5145,16 +5145,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G109" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>261</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>16</v>
@@ -5478,6 +5478,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5487,15 +5496,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5518,6 +5518,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B65EFA2E-A807-485E-9383-5A8846A1595A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5526,12 +5534,4 @@
     <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CD54F7-7682-4260-A57C-9131D22DC2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>